--- a/FOREX/data/FOREX_6Q.xlsx
+++ b/FOREX/data/FOREX_6Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -155,30 +155,450 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Andorra, Principality of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Algeria</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Angola</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Armenia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Aruba, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Azerbaijan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bahrain, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Belarus, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Andorra, Principality of</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Comoros, Union of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep. of the</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Congo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Croatia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao and Sint Maarten</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Curaçao, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Czech Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -191,6 +611,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -248,103 +680,373 @@
     <t>...</t>
   </si>
   <si>
+    <t>Fiji, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Angola</t>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Anguilla</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Argentina</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Armenia, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Aruba, Kingdom of the Netherlands</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Australia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Azerbaijan, Rep. of</t>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bahamas, The</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bahrain, Kingdom of</t>
+    <t>Jersey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bangladesh</t>
+    <t>Jordan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Barbados</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Belarus, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -353,130 +1055,520 @@
     <t>...</t>
   </si>
   <si>
-    <t>Belize</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bermuda</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Bhutan</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bolivia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nauru, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Botswana</t>
+    <t>New Caledonia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Bulgaria</t>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
+    <t>Rwanda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
@@ -485,43 +1577,130 @@
     <t>...</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
@@ -530,1657 +1709,193 @@
     <t>...</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tanzania, United Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Timor-Leste, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Yemen, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Croatia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Curaçao and Sint Maarten</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Czech Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Dominican Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Egypt, Arab Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Eritrea, The State of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Eswatini, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Euro Area</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Fiji, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Gambia, The</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kazakhstan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2769,7 +2484,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -3383,17 +3098,17 @@
       <c r="AJ9" s="20">
         <v>106.23666666666701</v>
       </c>
-      <c r="AK9" s="20" t="s">
-        <v>47</v>
+      <c r="AK9" s="20">
+        <v>108.64</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3494,101 +3209,101 @@
       <c r="AJ10" s="22">
         <v>138.08373333333299</v>
       </c>
-      <c r="AK10" s="22" t="s">
-        <v>50</v>
+      <c r="AK10" s="22">
+        <v>140.85939999999999</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="H11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="I11" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="J11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="K11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="L11" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="M11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="N11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="O11" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="P11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="Q11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="R11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="S11" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="T11" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="U11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="V11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="W11" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="V11" s="20" t="s">
+      <c r="X11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="W11" s="20" t="s">
+      <c r="Y11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="20" t="s">
+      <c r="Z11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="AA11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="AB11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AC11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="AB11" s="20" t="s">
+      <c r="AD11" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="20" t="s">
+      <c r="AE11" s="20" t="s">
         <v>77</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE11" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="AF11" s="20">
         <v>0.83856632369848805</v>
@@ -3612,10 +3327,10 @@
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3716,17 +3431,17 @@
       <c r="AJ12" s="22">
         <v>590.22762201518299</v>
       </c>
-      <c r="AK12" s="22" t="s">
-        <v>82</v>
+      <c r="AK12" s="22">
+        <v>505.44397629211898</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3834,10 +3549,10 @@
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3945,10 +3660,10 @@
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -4049,17 +3764,17 @@
       <c r="AJ15" s="20">
         <v>100.382633333333</v>
       </c>
-      <c r="AK15" s="20" t="s">
-        <v>89</v>
+      <c r="AK15" s="20">
+        <v>106.482666666667</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -4160,17 +3875,17 @@
       <c r="AJ16" s="22">
         <v>480.68054112554103</v>
       </c>
-      <c r="AK16" s="22" t="s">
-        <v>92</v>
+      <c r="AK16" s="22">
+        <v>486.39556856842103</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -4278,10 +3993,10 @@
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4382,17 +4097,17 @@
       <c r="AJ18" s="22">
         <v>1.3722321181403501</v>
       </c>
-      <c r="AK18" s="22" t="s">
-        <v>97</v>
+      <c r="AK18" s="22">
+        <v>1.38236575871562</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4493,17 +4208,17 @@
       <c r="AJ19" s="20">
         <v>1.7</v>
       </c>
-      <c r="AK19" s="20" t="s">
-        <v>100</v>
+      <c r="AK19" s="20">
+        <v>1.7</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4611,10 +4326,10 @@
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4722,10 +4437,10 @@
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4826,17 +4541,17 @@
       <c r="AJ22" s="22">
         <v>85.729038333333307</v>
       </c>
-      <c r="AK22" s="22" t="s">
-        <v>107</v>
+      <c r="AK22" s="22">
+        <v>86.004368471035093</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4944,10 +4659,10 @@
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -5048,17 +4763,17 @@
       <c r="AJ24" s="22">
         <v>2.49006666666667</v>
       </c>
-      <c r="AK24" s="22" t="s">
-        <v>112</v>
+      <c r="AK24" s="22">
+        <v>2.7951999999999999</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -5166,10 +4881,10 @@
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -5277,10 +4992,10 @@
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -5388,10 +5103,10 @@
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5492,17 +5207,17 @@
       <c r="AJ28" s="22">
         <v>74.983691578947401</v>
       </c>
-      <c r="AK28" s="22" t="s">
-        <v>121</v>
+      <c r="AK28" s="22">
+        <v>75.229732581453604</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5603,17 +5318,17 @@
       <c r="AJ29" s="20">
         <v>6.9100000000000001</v>
       </c>
-      <c r="AK29" s="20" t="s">
-        <v>124</v>
+      <c r="AK29" s="20">
+        <v>6.9100000000000001</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5714,17 +5429,17 @@
       <c r="AJ30" s="22">
         <v>1.70984798172043</v>
       </c>
-      <c r="AK30" s="22" t="s">
-        <v>127</v>
+      <c r="AK30" s="22">
+        <v>1.74269400537634</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5825,17 +5540,17 @@
       <c r="AJ31" s="20">
         <v>11.511433333333301</v>
       </c>
-      <c r="AK31" s="20" t="s">
-        <v>130</v>
+      <c r="AK31" s="20">
+        <v>11.5767666666667</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5936,17 +5651,17 @@
       <c r="AJ32" s="22">
         <v>5.5820797826086999</v>
       </c>
-      <c r="AK32" s="22" t="s">
-        <v>133</v>
+      <c r="AK32" s="22">
+        <v>5.2418149401280996</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -6047,17 +5762,17 @@
       <c r="AJ33" s="20">
         <v>1.3577713450292399</v>
       </c>
-      <c r="AK33" s="20" t="s">
-        <v>136</v>
+      <c r="AK33" s="20">
+        <v>1.3519076086956501</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -6158,17 +5873,17 @@
       <c r="AJ34" s="22">
         <v>1.71006666666667</v>
       </c>
-      <c r="AK34" s="22" t="s">
-        <v>139</v>
+      <c r="AK34" s="22">
+        <v>1.7430000000000001</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -6276,10 +5991,10 @@
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -6381,16 +6096,16 @@
         <v>1998.47956521739</v>
       </c>
       <c r="AK36" s="22" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6488,20 +6203,20 @@
       <c r="AI37" s="20">
         <v>93.514978354978396</v>
       </c>
-      <c r="AJ37" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK37" s="20" t="s">
-        <v>148</v>
+      <c r="AJ37" s="20">
+        <v>96.395755003450603</v>
+      </c>
+      <c r="AK37" s="20">
+        <v>98.234569392684705</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6602,17 +6317,17 @@
       <c r="AJ38" s="22">
         <v>4107.8130824372802</v>
       </c>
-      <c r="AK38" s="22" t="s">
-        <v>151</v>
+      <c r="AK38" s="22">
+        <v>4087.8283410138301</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6720,10 +6435,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6824,17 +6539,17 @@
       <c r="AJ40" s="22">
         <v>1.25897562678063</v>
       </c>
-      <c r="AK40" s="22" t="s">
-        <v>156</v>
+      <c r="AK40" s="22">
+        <v>1.2665428256631901</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6942,10 +6657,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -7053,10 +6768,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -7164,10 +6879,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -7268,17 +6983,17 @@
       <c r="AJ44" s="22">
         <v>824.24673308270701</v>
       </c>
-      <c r="AK44" s="22" t="s">
-        <v>165</v>
+      <c r="AK44" s="22">
+        <v>809.84883413848604</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -7379,17 +7094,17 @@
       <c r="AJ45" s="20">
         <v>7.79</v>
       </c>
-      <c r="AK45" s="20" t="s">
-        <v>168</v>
+      <c r="AK45" s="20">
+        <v>7.806</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7490,17 +7205,17 @@
       <c r="AJ46" s="22">
         <v>8.0231556666666695</v>
       </c>
-      <c r="AK46" s="22" t="s">
-        <v>171</v>
+      <c r="AK46" s="22">
+        <v>8.0388916666666699</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7601,17 +7316,17 @@
       <c r="AJ47" s="20">
         <v>6.3895293464052303</v>
       </c>
-      <c r="AK47" s="20" t="s">
-        <v>174</v>
+      <c r="AK47" s="20">
+        <v>6.3474048792270503</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7713,16 +7428,16 @@
         <v>3872.6618989898998</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7830,10 +7545,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7934,17 +7649,17 @@
       <c r="AJ50" s="22">
         <v>1998.96782169521</v>
       </c>
-      <c r="AK50" s="22" t="s">
-        <v>182</v>
+      <c r="AK50" s="22">
+        <v>1999.88741657895</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -8052,10 +7767,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -8156,17 +7871,17 @@
       <c r="AJ52" s="22">
         <v>635.115064516129</v>
       </c>
-      <c r="AK52" s="22" t="s">
-        <v>187</v>
+      <c r="AK52" s="22">
+        <v>643.693458141321</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -8274,10 +7989,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -8378,17 +8093,17 @@
       <c r="AJ54" s="22">
         <v>6.5672459999999999</v>
       </c>
-      <c r="AK54" s="22" t="s">
-        <v>192</v>
+      <c r="AK54" s="22">
+        <v>6.7147273333333297</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8496,10 +8211,10 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8607,10 +8322,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8711,17 +8426,17 @@
       <c r="AJ57" s="20">
         <v>22.186666666666699</v>
       </c>
-      <c r="AK57" s="20" t="s">
-        <v>199</v>
+      <c r="AK57" s="20">
+        <v>21.959</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8829,10 +8544,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8940,10 +8655,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -9051,10 +8766,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -9155,17 +8870,17 @@
       <c r="AJ61" s="20">
         <v>56.7986</v>
       </c>
-      <c r="AK61" s="20" t="s">
-        <v>208</v>
+      <c r="AK61" s="20">
+        <v>56.578600000000002</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -9273,10 +8988,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -9378,16 +9093,16 @@
         <v>15.660745853269599</v>
       </c>
       <c r="AK63" s="20" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9495,10 +9210,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9606,10 +9321,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9717,10 +9432,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9821,17 +9536,17 @@
       <c r="AJ67" s="20">
         <v>15.4068281960476</v>
       </c>
-      <c r="AK67" s="20" t="s">
-        <v>222</v>
+      <c r="AK67" s="20">
+        <v>15.2398600645845</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9924,25 +9639,25 @@
         <v>39.893328835725697</v>
       </c>
       <c r="AH68" s="22" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="AJ68" s="22" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="AK68" s="22" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -10050,10 +9765,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -10101,70 +9816,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="V70" s="22" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="Z70" s="22" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="AA70" s="22" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="AB70" s="22" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AC70" s="22" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="AD70" s="22" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="AE70" s="22" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="AF70" s="22" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="AG70" s="22" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="AH70" s="22" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="AI70" s="22" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AJ70" s="22" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AK70" s="22" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -10266,16 +9981,16 @@
         <v>2.1053666666666699</v>
       </c>
       <c r="AK71" s="20" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10383,10 +10098,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10494,10 +10209,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10599,16 +10314,16 @@
         <v>52.272702313473602</v>
       </c>
       <c r="AK74" s="22" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10716,10 +10431,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10818,19 +10533,19 @@
         <v>5.8226666666666702</v>
       </c>
       <c r="AJ76" s="22" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="AK76" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10931,17 +10646,17 @@
       <c r="AJ77" s="20">
         <v>0.74180683005214298</v>
       </c>
-      <c r="AK77" s="20" t="s">
-        <v>270</v>
+      <c r="AK77" s="20">
+        <v>0.74532729816606902</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10989,70 +10704,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="V78" s="22" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="W78" s="22" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="X78" s="22" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="Z78" s="22" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="AA78" s="22" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="AB78" s="22" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="AC78" s="22" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="AD78" s="22" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AE78" s="22" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="AF78" s="22" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="AG78" s="22" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="AH78" s="22" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="AJ78" s="22" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AK78" s="22" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -11160,10 +10875,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -11264,17 +10979,17 @@
       <c r="AJ80" s="22">
         <v>7.72837</v>
       </c>
-      <c r="AK80" s="22" t="s">
-        <v>296</v>
+      <c r="AK80" s="22">
+        <v>7.6963016666666704</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11375,17 +11090,17 @@
       <c r="AJ81" s="20">
         <v>0.74180683005214298</v>
       </c>
-      <c r="AK81" s="20" t="s">
-        <v>299</v>
+      <c r="AK81" s="20">
+        <v>0.74532729816606902</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11478,25 +11193,25 @@
         <v>10049.639775507199</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11604,10 +11319,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11709,16 +11424,16 @@
         <v>208.5</v>
       </c>
       <c r="AK84" s="22" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11820,16 +11535,16 @@
         <v>99.124233333333294</v>
       </c>
       <c r="AK85" s="20" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11930,17 +11645,17 @@
       <c r="AJ86" s="22">
         <v>24.146150709998501</v>
       </c>
-      <c r="AK86" s="22" t="s">
-        <v>316</v>
+      <c r="AK86" s="22">
+        <v>24.4317375362319</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -12041,17 +11756,17 @@
       <c r="AJ87" s="20">
         <v>318.63999999999999</v>
       </c>
-      <c r="AK87" s="20" t="s">
-        <v>319</v>
+      <c r="AK87" s="20">
+        <v>324.5</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -12152,17 +11867,17 @@
       <c r="AJ88" s="22">
         <v>129.95828282828299</v>
       </c>
-      <c r="AK88" s="22" t="s">
-        <v>322</v>
+      <c r="AK88" s="22">
+        <v>128.15384610075901</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -12263,17 +11978,17 @@
       <c r="AJ89" s="20">
         <v>74.928105491990806</v>
       </c>
-      <c r="AK89" s="20" t="s">
-        <v>325</v>
+      <c r="AK89" s="20">
+        <v>75.229732581453604</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12381,10 +12096,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12492,10 +12207,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12593,20 +12308,20 @@
       <c r="AI92" s="22">
         <v>1450</v>
       </c>
-      <c r="AJ92" s="22" t="s">
-        <v>332</v>
+      <c r="AJ92" s="22">
+        <v>1450</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>335</v>
+        <v>297</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12707,17 +12422,17 @@
       <c r="AJ93" s="20">
         <v>0.74180683005214298</v>
       </c>
-      <c r="AK93" s="20" t="s">
-        <v>336</v>
+      <c r="AK93" s="20">
+        <v>0.74532729816606902</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12825,10 +12540,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12924,22 +12639,22 @@
         <v>150.33648454545499</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="AK95" s="20" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -13040,17 +12755,17 @@
       <c r="AJ96" s="22">
         <v>113.587082788671</v>
       </c>
-      <c r="AK96" s="22" t="s">
-        <v>346</v>
+      <c r="AK96" s="22">
+        <v>116.191144781145</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -13151,17 +12866,17 @@
       <c r="AJ97" s="20">
         <v>0.74180683005214298</v>
       </c>
-      <c r="AK97" s="20" t="s">
-        <v>349</v>
+      <c r="AK97" s="20">
+        <v>0.74532729816606902</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -13269,10 +12984,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13373,17 +13088,17 @@
       <c r="AJ99" s="20">
         <v>429.86000000000001</v>
       </c>
-      <c r="AK99" s="20" t="s">
-        <v>354</v>
+      <c r="AK99" s="20">
+        <v>455.09333333333302</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13484,17 +13199,17 @@
       <c r="AJ100" s="22">
         <v>111.89746327360299</v>
       </c>
-      <c r="AK100" s="22" t="s">
-        <v>357</v>
+      <c r="AK100" s="22">
+        <v>113.786160450412</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13595,17 +13310,17 @@
       <c r="AJ101" s="20">
         <v>1.3722321181403501</v>
       </c>
-      <c r="AK101" s="20" t="s">
-        <v>360</v>
+      <c r="AK101" s="20">
+        <v>1.38236575871562</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13706,17 +13421,17 @@
       <c r="AJ102" s="22">
         <v>1183.11666666667</v>
       </c>
-      <c r="AK102" s="22" t="s">
-        <v>363</v>
+      <c r="AK102" s="22">
+        <v>1204.46</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13824,10 +13539,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13928,17 +13643,17 @@
       <c r="AJ104" s="22">
         <v>0.30212678481649102</v>
       </c>
-      <c r="AK104" s="22" t="s">
-        <v>368</v>
+      <c r="AK104" s="22">
+        <v>0.302931986531987</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -14039,17 +13754,17 @@
       <c r="AJ105" s="20">
         <v>84.793613189964205</v>
       </c>
-      <c r="AK105" s="20" t="s">
-        <v>371</v>
+      <c r="AK105" s="20">
+        <v>89.671519815668205</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -14147,20 +13862,20 @@
       <c r="AI106" s="22">
         <v>9572.3939393939399</v>
       </c>
-      <c r="AJ106" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="AK106" s="22" t="s">
-        <v>375</v>
+      <c r="AJ106" s="22">
+        <v>10478.0984848485</v>
+      </c>
+      <c r="AK106" s="22">
+        <v>11278.2545454545</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -14268,10 +13983,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14372,17 +14087,17 @@
       <c r="AJ108" s="22">
         <v>15.4136021403333</v>
       </c>
-      <c r="AK108" s="22" t="s">
-        <v>380</v>
+      <c r="AK108" s="22">
+        <v>15.2398600645845</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14478,22 +14193,22 @@
         <v>171.87432282051299</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14580,31 +14295,31 @@
         <v>1.3794435644989</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14622,100 +14337,100 @@
         <v>2.7608333333333301</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="T111" s="20" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="U111" s="20" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="X111" s="20" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="Y111" s="20" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="Z111" s="20" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="AA111" s="20" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="AB111" s="20" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="AC111" s="20" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="AD111" s="20" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="AE111" s="20" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="AF111" s="20" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="AG111" s="20" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AH111" s="20" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="AI111" s="20" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="AJ111" s="20" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="AK111" s="20" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14816,17 +14531,17 @@
       <c r="AJ112" s="22">
         <v>3945.8741269841298</v>
       </c>
-      <c r="AK112" s="22" t="s">
-        <v>427</v>
+      <c r="AK112" s="22">
+        <v>3974.90292857143</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14925,19 +14640,19 @@
         <v>818.15012014397803</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -15038,17 +14753,17 @@
       <c r="AJ114" s="22">
         <v>4.1845781366459596</v>
       </c>
-      <c r="AK114" s="22" t="s">
-        <v>434</v>
+      <c r="AK114" s="22">
+        <v>4.1923867954911396</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -15149,17 +14864,17 @@
       <c r="AJ115" s="20">
         <v>15.391283154121901</v>
       </c>
-      <c r="AK115" s="20" t="s">
-        <v>437</v>
+      <c r="AK115" s="20">
+        <v>15.3813172043011</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -15267,10 +14982,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15363,25 +15078,25 @@
         <v>35.996666666666698</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15482,17 +15197,17 @@
       <c r="AJ118" s="22">
         <v>43.192399999999999</v>
       </c>
-      <c r="AK118" s="22" t="s">
-        <v>448</v>
+      <c r="AK118" s="22">
+        <v>43.833066666666703</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>450</v>
+        <v>396</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15593,17 +15308,17 @@
       <c r="AJ119" s="20">
         <v>20.747966666666699</v>
       </c>
-      <c r="AK119" s="20" t="s">
-        <v>451</v>
+      <c r="AK119" s="20">
+        <v>20.520600000000002</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>452</v>
+        <v>397</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15711,10 +15426,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>455</v>
+        <v>400</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15815,17 +15530,17 @@
       <c r="AJ121" s="20">
         <v>17.6003845878136</v>
       </c>
-      <c r="AK121" s="20" t="s">
-        <v>456</v>
+      <c r="AK121" s="20">
+        <v>18.0900540706605</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15926,17 +15641,17 @@
       <c r="AJ122" s="22">
         <v>2848.9597215007202</v>
       </c>
-      <c r="AK122" s="22" t="s">
-        <v>459</v>
+      <c r="AK122" s="22">
+        <v>2869.4516339869301</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>460</v>
+        <v>403</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -16044,10 +15759,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>463</v>
+        <v>406</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -16155,10 +15870,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>465</v>
+        <v>408</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -16259,17 +15974,17 @@
       <c r="AJ125" s="20">
         <v>9.1561246086230099</v>
       </c>
-      <c r="AK125" s="20" t="s">
-        <v>466</v>
+      <c r="AK125" s="20">
+        <v>9.2268481884057998</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>468</v>
+        <v>410</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16370,17 +16085,17 @@
       <c r="AJ126" s="22">
         <v>63.829999999999998</v>
       </c>
-      <c r="AK126" s="22" t="s">
-        <v>469</v>
+      <c r="AK126" s="22">
+        <v>63.829999999999998</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16473,25 +16188,25 @@
         <v>1390.43333333333</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16599,10 +16314,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>478</v>
+        <v>419</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16703,17 +16418,17 @@
       <c r="AJ129" s="20">
         <v>1.3722321181403501</v>
       </c>
-      <c r="AK129" s="20" t="s">
-        <v>480</v>
+      <c r="AK129" s="20">
+        <v>1.38236575871562</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16815,16 +16530,16 @@
         <v>119.48086997898901</v>
       </c>
       <c r="AK130" s="22" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16932,10 +16647,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -17043,10 +16758,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>489</v>
+        <v>429</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -17148,16 +16863,16 @@
         <v>35.433433333333298</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -17265,10 +16980,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>493</v>
+        <v>433</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17367,19 +17082,19 @@
         <v>410.69999999999999</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>495</v>
+        <v>435</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>496</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>497</v>
+        <v>437</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>498</v>
+        <v>438</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17480,17 +17195,17 @@
       <c r="AJ136" s="22">
         <v>53.930033333333299</v>
       </c>
-      <c r="AK136" s="22" t="s">
-        <v>499</v>
+      <c r="AK136" s="22">
+        <v>54.9643333333333</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>500</v>
+        <v>439</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17591,17 +17306,17 @@
       <c r="AJ137" s="20">
         <v>8.7200000000000006</v>
       </c>
-      <c r="AK137" s="20" t="s">
-        <v>502</v>
+      <c r="AK137" s="20">
+        <v>8.8499999999999996</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17709,10 +17424,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17813,17 +17528,17 @@
       <c r="AJ139" s="20">
         <v>174.32779928195001</v>
       </c>
-      <c r="AK139" s="20" t="s">
-        <v>507</v>
+      <c r="AK139" s="20">
+        <v>177.37214969697001</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17931,10 +17646,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -18042,10 +17757,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -18147,16 +17862,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -18257,17 +17972,17 @@
       <c r="AJ143" s="20">
         <v>6859.3986976912001</v>
       </c>
-      <c r="AK143" s="20" t="s">
-        <v>517</v>
+      <c r="AK143" s="20">
+        <v>6972.0181646144301</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>518</v>
+        <v>454</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>519</v>
+        <v>455</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18368,17 +18083,17 @@
       <c r="AJ144" s="22">
         <v>4.02387417027417</v>
       </c>
-      <c r="AK144" s="22" t="s">
-        <v>520</v>
+      <c r="AK144" s="22">
+        <v>3.80628944099379</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18479,17 +18194,17 @@
       <c r="AJ145" s="20">
         <v>50.451334126984101</v>
       </c>
-      <c r="AK145" s="20" t="s">
-        <v>523</v>
+      <c r="AK145" s="20">
+        <v>51.529969634230497</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18590,17 +18305,17 @@
       <c r="AJ146" s="22">
         <v>4.0398666666666703</v>
       </c>
-      <c r="AK146" s="22" t="s">
-        <v>526</v>
+      <c r="AK146" s="22">
+        <v>4.1200666666666699</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>527</v>
+        <v>460</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18708,10 +18423,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>529</v>
+        <v>462</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>530</v>
+        <v>463</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18812,17 +18527,17 @@
       <c r="AJ148" s="22">
         <v>4.3265333333333302</v>
       </c>
-      <c r="AK148" s="22" t="s">
-        <v>531</v>
+      <c r="AK148" s="22">
+        <v>4.4066666666666698</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18924,16 +18639,16 @@
         <v>72.598266666666703</v>
       </c>
       <c r="AK149" s="20" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -19034,17 +18749,17 @@
       <c r="AJ150" s="22">
         <v>1002.8145765555601</v>
       </c>
-      <c r="AK150" s="22" t="s">
-        <v>537</v>
+      <c r="AK150" s="22">
+        <v>1014.648099</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -19145,17 +18860,17 @@
       <c r="AJ151" s="20">
         <v>2.5857188843868699</v>
       </c>
-      <c r="AK151" s="20" t="s">
-        <v>540</v>
+      <c r="AK151" s="20">
+        <v>2.6120313675308799</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>542</v>
+        <v>472</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -19263,10 +18978,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>543</v>
+        <v>473</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>544</v>
+        <v>474</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19356,28 +19071,28 @@
         <v>20.561389538239499</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>545</v>
+        <v>475</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>546</v>
+        <v>476</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>547</v>
+        <v>477</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="AK153" s="20" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19485,10 +19200,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>553</v>
+        <v>483</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19596,10 +19311,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19700,17 +19415,17 @@
       <c r="AJ156" s="22">
         <v>102.788166666667</v>
       </c>
-      <c r="AK156" s="22" t="s">
-        <v>556</v>
+      <c r="AK156" s="22">
+        <v>104.78463333333301</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>557</v>
+        <v>486</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19812,16 +19527,16 @@
         <v>14.6904308080808</v>
       </c>
       <c r="AK157" s="20" t="s">
-        <v>559</v>
+        <v>488</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>560</v>
+        <v>489</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>561</v>
+        <v>490</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19920,19 +19635,19 @@
         <v>10349.437485570001</v>
       </c>
       <c r="AJ158" s="22" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
       <c r="AK158" s="22" t="s">
-        <v>563</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -20033,17 +19748,17 @@
       <c r="AJ159" s="20">
         <v>1.35723333333333</v>
       </c>
-      <c r="AK159" s="20" t="s">
-        <v>566</v>
+      <c r="AK159" s="20">
+        <v>1.3522000000000001</v>
       </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -20151,10 +19866,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>569</v>
+        <v>497</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -20255,17 +19970,17 @@
       <c r="AJ161" s="20">
         <v>8.0656006445491695</v>
       </c>
-      <c r="AK161" s="20" t="s">
-        <v>571</v>
+      <c r="AK161" s="20">
+        <v>8.0777538043065995</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>572</v>
+        <v>499</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>573</v>
+        <v>500</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20325,58 +20040,58 @@
         <v>23522.3428300095</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>574</v>
+        <v>501</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>575</v>
+        <v>502</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>576</v>
+        <v>503</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>578</v>
+        <v>505</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>579</v>
+        <v>506</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>580</v>
+        <v>507</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>581</v>
+        <v>508</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>584</v>
+        <v>511</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>585</v>
+        <v>512</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
       <c r="AK162" s="22" t="s">
-        <v>588</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>589</v>
+        <v>516</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>590</v>
+        <v>517</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20477,17 +20192,17 @@
       <c r="AJ163" s="20">
         <v>15.4136021403333</v>
       </c>
-      <c r="AK163" s="20" t="s">
-        <v>591</v>
+      <c r="AK163" s="20">
+        <v>15.227718928333299</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>593</v>
+        <v>519</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20589,16 +20304,16 @@
         <v>412.16729370967698</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>594</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>595</v>
+        <v>521</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>596</v>
+        <v>522</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20688,28 +20403,28 @@
         <v>185.46943825396801</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>597</v>
+        <v>523</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>598</v>
+        <v>524</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>599</v>
+        <v>525</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>600</v>
+        <v>526</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>601</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>602</v>
+        <v>528</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20817,10 +20532,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>604</v>
+        <v>530</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>605</v>
+        <v>531</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20928,10 +20643,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>606</v>
+        <v>532</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>607</v>
+        <v>533</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -21039,10 +20754,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>608</v>
+        <v>534</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>609</v>
+        <v>535</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -21135,25 +20850,25 @@
         <v>195.01333333333301</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>611</v>
+        <v>537</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>612</v>
+        <v>538</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>613</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>614</v>
+        <v>540</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>615</v>
+        <v>541</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -21252,19 +20967,19 @@
         <v>21.313109166666699</v>
       </c>
       <c r="AJ170" s="22">
-        <v>21.531658166666698</v>
-      </c>
-      <c r="AK170" s="22" t="s">
-        <v>616</v>
+        <v>21.531659333333302</v>
+      </c>
+      <c r="AK170" s="22">
+        <v>21.478028500000001</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21372,10 +21087,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21476,17 +21191,17 @@
       <c r="AJ172" s="22">
         <v>0.92210000000000003</v>
       </c>
-      <c r="AK172" s="22" t="s">
-        <v>621</v>
+      <c r="AK172" s="22">
+        <v>0.92366999999999999</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>622</v>
+        <v>546</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>623</v>
+        <v>547</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21549,55 +21264,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>624</v>
+        <v>548</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>625</v>
+        <v>549</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>626</v>
+        <v>550</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>627</v>
+        <v>551</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>628</v>
+        <v>552</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>629</v>
+        <v>553</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>630</v>
+        <v>554</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>631</v>
+        <v>555</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>632</v>
+        <v>556</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>634</v>
+        <v>558</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>635</v>
+        <v>559</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>636</v>
+        <v>560</v>
       </c>
       <c r="AK173" s="20" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>638</v>
+        <v>562</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>639</v>
+        <v>563</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21699,16 +21414,16 @@
         <v>27.841666666666701</v>
       </c>
       <c r="AK174" s="22" t="s">
-        <v>640</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>641</v>
+        <v>565</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>642</v>
+        <v>566</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21809,17 +21524,17 @@
       <c r="AJ175" s="20">
         <v>11.289999999999999</v>
       </c>
-      <c r="AK175" s="20" t="s">
-        <v>643</v>
+      <c r="AK175" s="20">
+        <v>11.7142</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>644</v>
+        <v>567</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>645</v>
+        <v>568</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21908,29 +21623,29 @@
       <c r="AF176" s="22">
         <v>2297.7416990496099</v>
       </c>
-      <c r="AG176" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="AH176" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="AI176" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="AJ176" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="AK176" s="22" t="s">
-        <v>650</v>
+      <c r="AG176" s="22">
+        <v>2298.4834752041002</v>
+      </c>
+      <c r="AH176" s="22">
+        <v>2298.5988263576401</v>
+      </c>
+      <c r="AI176" s="22">
+        <v>2299.2113195319498</v>
+      </c>
+      <c r="AJ176" s="22">
+        <v>2294.7632838579898</v>
+      </c>
+      <c r="AK176" s="22">
+        <v>2298.1761933921698</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>651</v>
+        <v>569</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>652</v>
+        <v>570</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -22031,17 +21746,17 @@
       <c r="AJ177" s="20">
         <v>33.378267368421099</v>
       </c>
-      <c r="AK177" s="20" t="s">
-        <v>653</v>
+      <c r="AK177" s="20">
+        <v>33.052896250953502</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>654</v>
+        <v>571</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>655</v>
+        <v>572</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -22149,10 +21864,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>656</v>
+        <v>573</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>657</v>
+        <v>574</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -22260,10 +21975,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>658</v>
+        <v>575</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>659</v>
+        <v>576</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22356,25 +22071,25 @@
         <v>2.28477587471416</v>
       </c>
       <c r="AH180" s="22">
-        <v>2.2538733369748898</v>
+        <v>2.2525951617695701</v>
       </c>
       <c r="AI180" s="22">
-        <v>2.2570858167251702</v>
+        <v>2.2578369454821798</v>
       </c>
       <c r="AJ180" s="22">
-        <v>2.2566941038078001</v>
+        <v>2.2646304200362901</v>
       </c>
       <c r="AK180" s="22" t="s">
-        <v>660</v>
+        <v>577</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22475,17 +22190,17 @@
       <c r="AJ181" s="20">
         <v>6.7591470272904504</v>
       </c>
-      <c r="AK181" s="20" t="s">
-        <v>663</v>
+      <c r="AK181" s="20">
+        <v>6.7590321212121198</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22586,17 +22301,17 @@
       <c r="AJ182" s="22">
         <v>2.8738000000000001</v>
       </c>
-      <c r="AK182" s="22" t="s">
-        <v>666</v>
+      <c r="AK182" s="22">
+        <v>2.9135</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>668</v>
+        <v>583</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22694,20 +22409,20 @@
       <c r="AI183" s="20">
         <v>8.5338233333333307</v>
       </c>
-      <c r="AJ183" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="AK183" s="20" t="s">
-        <v>670</v>
+      <c r="AJ183" s="20">
+        <v>11.1296229928315</v>
+      </c>
+      <c r="AK183" s="20">
+        <v>13.9274970814132</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>671</v>
+        <v>584</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>672</v>
+        <v>585</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22808,17 +22523,17 @@
       <c r="AJ184" s="22">
         <v>3562.15230517912</v>
       </c>
-      <c r="AK184" s="22" t="s">
-        <v>673</v>
+      <c r="AK184" s="22">
+        <v>3544.3942049441798</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>674</v>
+        <v>586</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>675</v>
+        <v>587</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22919,17 +22634,17 @@
       <c r="AJ185" s="20">
         <v>26.678121733333299</v>
       </c>
-      <c r="AK185" s="20" t="s">
-        <v>676</v>
+      <c r="AK185" s="20">
+        <v>28.549945099999999</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>677</v>
+        <v>588</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>678</v>
+        <v>589</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -23037,10 +22752,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>679</v>
+        <v>590</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>680</v>
+        <v>591</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -23141,17 +22856,17 @@
       <c r="AJ187" s="20">
         <v>0.74180683005214298</v>
       </c>
-      <c r="AK187" s="20" t="s">
-        <v>681</v>
+      <c r="AK187" s="20">
+        <v>0.74532729816606902</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>682</v>
+        <v>592</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -23259,10 +22974,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>684</v>
+        <v>594</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>685</v>
+        <v>595</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23363,17 +23078,17 @@
       <c r="AJ189" s="20">
         <v>43.981333333333303</v>
       </c>
-      <c r="AK189" s="20" t="s">
-        <v>686</v>
+      <c r="AK189" s="20">
+        <v>43.312333333333299</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>687</v>
+        <v>596</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>688</v>
+        <v>597</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23474,17 +23189,17 @@
       <c r="AJ190" s="22">
         <v>10741.944817204299</v>
       </c>
-      <c r="AK190" s="22" t="s">
-        <v>689</v>
+      <c r="AK190" s="22">
+        <v>10961.939965437799</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>690</v>
+        <v>598</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>691</v>
+        <v>599</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23583,19 +23298,19 @@
         <v>110.73333333333299</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
       <c r="AK191" s="20" t="s">
-        <v>693</v>
+        <v>601</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>695</v>
+        <v>603</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23655,58 +23370,58 @@
         <v>71359.309366666697</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>696</v>
+        <v>604</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>699</v>
+        <v>607</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>700</v>
+        <v>608</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>701</v>
+        <v>609</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>703</v>
+        <v>611</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>705</v>
+        <v>613</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>706</v>
+        <v>614</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>707</v>
+        <v>615</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>709</v>
+        <v>617</v>
       </c>
       <c r="AK192" s="22" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>711</v>
+        <v>619</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>712</v>
+        <v>620</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23807,17 +23522,17 @@
       <c r="AJ193" s="20">
         <v>23153.209999999999</v>
       </c>
-      <c r="AK193" s="20" t="s">
-        <v>713</v>
+      <c r="AK193" s="20">
+        <v>23123.310000000001</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>714</v>
+        <v>621</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>715</v>
+        <v>622</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23918,17 +23633,17 @@
       <c r="AJ194" s="22">
         <v>1361.54489337823</v>
       </c>
-      <c r="AK194" s="22" t="s">
-        <v>716</v>
+      <c r="AK194" s="22">
+        <v>1147.42530721966</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>717</v>
+        <v>623</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>718</v>
+        <v>624</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -24030,82 +23745,82 @@
         <v>17.046973096753401</v>
       </c>
       <c r="AK195" s="20" t="s">
-        <v>719</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>720</v>
+        <v>626</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>721</v>
+        <v>627</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>722</v>
+        <v>628</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>723</v>
+        <v>629</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>724</v>
+        <v>630</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>725</v>
+        <v>631</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>726</v>
+        <v>632</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>727</v>
+        <v>633</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>728</v>
+        <v>634</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>729</v>
+        <v>635</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>730</v>
+        <v>636</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>731</v>
+        <v>637</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>732</v>
+        <v>638</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>733</v>
+        <v>639</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>735</v>
+        <v>641</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>736</v>
+        <v>642</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>737</v>
+        <v>643</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>738</v>
+        <v>644</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>739</v>
+        <v>645</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>740</v>
+        <v>646</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>741</v>
+        <v>647</v>
       </c>
       <c r="Y196" s="22" t="s">
-        <v>742</v>
+        <v>648</v>
       </c>
       <c r="Z196" s="22">
         <v>4.4076787878787904</v>
@@ -24140,17 +23855,17 @@
       <c r="AJ196" s="22">
         <v>100.375530952381</v>
       </c>
-      <c r="AK196" s="22" t="s">
-        <v>743</v>
+      <c r="AK196" s="22">
+        <v>121.08271567687299</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>744</v>
+        <v>649</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>745</v>
+        <v>650</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -24258,10 +23973,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>746</v>
+        <v>651</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>747</v>
+        <v>652</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24369,10 +24084,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>748</v>
+        <v>653</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>749</v>
+        <v>654</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_6Q.xlsx
+++ b/FOREX/data/FOREX_6Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -566,42 +566,168 @@
     <t>Units</t>
   </si>
   <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -611,18 +737,78 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -635,9 +821,87 @@
     <t>...</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -647,6 +911,90 @@
     <t>...</t>
   </si>
   <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -656,6 +1004,12 @@
     <t>...</t>
   </si>
   <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -674,90 +1028,399 @@
     <t>...</t>
   </si>
   <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Mauritania, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Namibia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Nauru, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -773,6 +1436,60 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -797,30 +1514,87 @@
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -833,880 +1607,76 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kazakhstan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Korea, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kosovo, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Tajikistan, Rep. of</t>
@@ -5652,7 +5622,7 @@
         <v>5.5820797826086999</v>
       </c>
       <c r="AK32" s="22">
-        <v>5.2418149401280996</v>
+        <v>5.2324218424850004</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
@@ -9092,17 +9062,17 @@
       <c r="AJ63" s="20">
         <v>15.660745853269599</v>
       </c>
-      <c r="AK63" s="20" t="s">
-        <v>184</v>
+      <c r="AK63" s="20">
+        <v>16.001845434782599</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9210,10 +9180,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9321,10 +9291,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9432,10 +9402,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>192</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9543,10 +9513,10 @@
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9639,25 +9609,25 @@
         <v>39.893328835725697</v>
       </c>
       <c r="AH68" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI68" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="AI68" s="22" t="s">
+      <c r="AJ68" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="AJ68" s="22" t="s">
+      <c r="AK68" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="AK68" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9765,10 +9735,10 @@
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>201</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>202</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9816,70 +9786,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="T70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="U70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="AJ70" s="22" t="s">
+      <c r="AK70" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="AK70" s="22" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>222</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>223</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9980,17 +9950,17 @@
       <c r="AJ71" s="20">
         <v>2.1053666666666699</v>
       </c>
-      <c r="AK71" s="20" t="s">
-        <v>224</v>
+      <c r="AK71" s="20">
+        <v>2.12706666666667</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10098,10 +10068,10 @@
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10209,10 +10179,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10314,16 +10284,16 @@
         <v>52.272702313473602</v>
       </c>
       <c r="AK74" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10431,10 +10401,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10530,22 +10500,22 @@
         <v>5.7388333333333303</v>
       </c>
       <c r="AI76" s="22">
-        <v>5.8226666666666702</v>
-      </c>
-      <c r="AJ76" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK76" s="22" t="s">
-        <v>237</v>
+        <v>5.8234666666666701</v>
+      </c>
+      <c r="AJ76" s="22">
+        <v>5.9119000000000002</v>
+      </c>
+      <c r="AK76" s="22">
+        <v>6.4548333333333296</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10653,10 +10623,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10704,70 +10674,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="T78" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="U78" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="V78" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="W78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AK78" s="22" t="s">
         <v>256</v>
-      </c>
-      <c r="AH78" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI78" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ78" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK78" s="22" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10875,10 +10845,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10986,10 +10956,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11097,10 +11067,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11193,25 +11163,25 @@
         <v>10049.639775507199</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11319,10 +11289,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11423,17 +11393,17 @@
       <c r="AJ84" s="22">
         <v>208.5</v>
       </c>
-      <c r="AK84" s="22" t="s">
-        <v>277</v>
+      <c r="AK84" s="22">
+        <v>208.5</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11534,17 +11504,17 @@
       <c r="AJ85" s="20">
         <v>99.124233333333294</v>
       </c>
-      <c r="AK85" s="20" t="s">
-        <v>280</v>
+      <c r="AK85" s="20">
+        <v>102.61759508902399</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11652,10 +11622,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11763,10 +11733,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11874,10 +11844,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11985,10 +11955,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12096,10 +12066,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12207,10 +12177,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12312,16 +12282,16 @@
         <v>1450</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12429,10 +12399,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12540,10 +12510,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12639,22 +12609,22 @@
         <v>150.33648454545499</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AK95" s="20" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12762,10 +12732,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12873,10 +12843,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12984,10 +12954,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13095,10 +13065,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13206,10 +13176,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13317,10 +13287,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13428,10 +13398,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13539,10 +13509,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13650,10 +13620,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13761,10 +13731,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13872,10 +13842,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13983,10 +13953,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14094,10 +14064,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14193,22 +14163,22 @@
         <v>171.87432282051299</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14295,31 +14265,31 @@
         <v>1.3794435644989</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AK110" s="22" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14337,100 +14307,100 @@
         <v>2.7608333333333301</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="M111" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="N111" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="O111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="AF111" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG111" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14538,10 +14508,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14640,19 +14610,19 @@
         <v>818.15012014397803</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14760,10 +14730,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14871,10 +14841,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14982,10 +14952,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15078,25 +15048,25 @@
         <v>35.996666666666698</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15204,10 +15174,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15315,10 +15285,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15426,10 +15396,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15537,10 +15507,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15648,10 +15618,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15759,10 +15729,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15870,10 +15840,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15975,16 +15945,16 @@
         <v>9.1561246086230099</v>
       </c>
       <c r="AK125" s="20">
-        <v>9.2268481884057998</v>
+        <v>9.4709264492753604</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16092,10 +16062,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16188,25 +16158,25 @@
         <v>1390.43333333333</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16308,16 +16278,16 @@
         <v>15.413600000000001</v>
       </c>
       <c r="AK128" s="22">
-        <v>15.289099999999999</v>
+        <v>15.227733333333299</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16425,10 +16395,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16530,16 +16500,16 @@
         <v>119.48086997898901</v>
       </c>
       <c r="AK130" s="22" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16647,10 +16617,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16758,10 +16728,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16863,16 +16833,16 @@
         <v>35.433433333333298</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16980,10 +16950,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17082,19 +17052,19 @@
         <v>410.69999999999999</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17202,10 +17172,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17313,10 +17283,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17424,10 +17394,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17535,10 +17505,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17646,10 +17616,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17757,10 +17727,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17862,16 +17832,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17979,10 +17949,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18090,10 +18060,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18201,10 +18171,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18312,10 +18282,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18423,10 +18393,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18534,10 +18504,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18639,16 +18609,16 @@
         <v>72.598266666666703</v>
       </c>
       <c r="AK149" s="20" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18756,10 +18726,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18867,10 +18837,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18978,10 +18948,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19071,28 +19041,28 @@
         <v>20.561389538239499</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="AK153" s="20" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19200,10 +19170,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19311,10 +19281,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19422,10 +19392,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19526,17 +19496,17 @@
       <c r="AJ157" s="20">
         <v>14.6904308080808</v>
       </c>
-      <c r="AK157" s="20" t="s">
-        <v>488</v>
+      <c r="AK157" s="20">
+        <v>14.4253151315841</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19634,20 +19604,20 @@
       <c r="AI158" s="22">
         <v>10349.437485570001</v>
       </c>
-      <c r="AJ158" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK158" s="22" t="s">
-        <v>492</v>
+      <c r="AJ158" s="22">
+        <v>10968.0665227273</v>
+      </c>
+      <c r="AK158" s="22">
+        <v>11545.737618421101</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19755,10 +19725,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19866,10 +19836,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19977,10 +19947,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20040,58 +20010,58 @@
         <v>23522.3428300095</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y162" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z162" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="AA162" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB162" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="AC162" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="AD162" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE162" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="AC162" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="AD162" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="AE162" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="AF162" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="AG162" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH162" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="AI162" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20199,10 +20169,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20304,16 +20274,16 @@
         <v>412.16729370967698</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20403,28 +20373,28 @@
         <v>185.46943825396801</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20532,10 +20502,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20643,10 +20613,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20754,10 +20724,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20850,25 +20820,25 @@
         <v>195.01333333333301</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20976,10 +20946,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21087,10 +21057,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21198,10 +21168,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21264,55 +21234,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z173" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="AA173" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB173" s="20" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC173" s="20" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD173" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE173" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="AF173" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="AG173" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>552</v>
-      </c>
-      <c r="AC173" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="AD173" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="AE173" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF173" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG173" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH173" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="AI173" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21413,17 +21383,17 @@
       <c r="AJ174" s="22">
         <v>27.841666666666701</v>
       </c>
-      <c r="AK174" s="22" t="s">
-        <v>564</v>
+      <c r="AK174" s="22">
+        <v>28</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21531,10 +21501,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21642,10 +21612,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21753,10 +21723,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21864,10 +21834,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21975,10 +21945,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22080,16 +22050,16 @@
         <v>2.2646304200362901</v>
       </c>
       <c r="AK180" s="22" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22197,10 +22167,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22308,10 +22278,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22419,10 +22389,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22530,10 +22500,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22641,10 +22611,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22752,10 +22722,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22863,10 +22833,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22974,10 +22944,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23085,10 +23055,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23196,10 +23166,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23298,19 +23268,19 @@
         <v>110.73333333333299</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AK191" s="20" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23370,58 +23340,58 @@
         <v>71359.309366666697</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB192" s="22" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC192" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD192" s="22" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE192" s="22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF192" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG192" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>605</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>606</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>607</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="AB192" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="AC192" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="AD192" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE192" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF192" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="AG192" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23529,10 +23499,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23640,10 +23610,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23745,82 +23715,82 @@
         <v>17.046973096753401</v>
       </c>
       <c r="AK195" s="20" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="K196" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="L196" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="M196" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="N196" s="22" t="s">
+        <v>627</v>
+      </c>
+      <c r="O196" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>632</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>633</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>634</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>635</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>637</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="Y196" s="22" t="s">
         <v>638</v>
-      </c>
-      <c r="P196" s="22" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q196" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="R196" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="S196" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>644</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>645</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="Y196" s="22" t="s">
-        <v>648</v>
       </c>
       <c r="Z196" s="22">
         <v>4.4076787878787904</v>
@@ -23862,10 +23832,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23973,10 +23943,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24084,10 +24054,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_6Q.xlsx
+++ b/FOREX/data/FOREX_6Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -1265,130 +1265,325 @@
     <t>Units</t>
   </si>
   <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>New Caledonia</t>
+    <t>Niger</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>New Zealand</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nicaragua</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Niger</t>
+    <t>Paraguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Nigeria</t>
+    <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
-    <t>North Macedonia, Republic of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Norway</t>
+    <t>Senegal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Oman</t>
+    <t>Serbia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Pakistan</t>
+    <t>Seychelles</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Palau, Rep. of</t>
+    <t>Sierra Leone</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Panama</t>
+    <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Paraguay</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Peru</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Philippines</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Poland, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Qatar</t>
+    <t>St. Lucia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Romania</t>
+    <t>St. Vincent and the Grenadines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>Sudan</t>
   </si>
   <si>
     <t>Units</t>
@@ -1397,25 +1592,34 @@
     <t>...</t>
   </si>
   <si>
-    <t>Rwanda</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Samoa</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>San Marino, Rep. of</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
@@ -1436,60 +1640,147 @@
     <t>...</t>
   </si>
   <si>
-    <t>Saudi Arabia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Serbia, Rep. of</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Seychelles</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sierra Leone</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Singapore</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
+    <t>Tonga</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uzbekistan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -1535,331 +1826,22 @@
     <t>...</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>South Sudan, Rep. of</t>
+    <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
+    <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Yemen, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Zimbabwe</t>
@@ -2454,7 +2436,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -7413,73 +7395,73 @@
         <v/>
       </c>
       <c r="E49" s="19">
-        <v>359.19709909279197</v>
+        <v>359.19709909280499</v>
       </c>
       <c r="F49" s="20">
-        <v>358.81962555804603</v>
+        <v>358.819625558035</v>
       </c>
       <c r="G49" s="20">
-        <v>371.13981064593702</v>
+        <v>371.13981064593401</v>
       </c>
       <c r="H49" s="20">
         <v>393.63570557899698</v>
       </c>
       <c r="I49" s="20">
-        <v>436.86087149562201</v>
+        <v>436.860871495607</v>
       </c>
       <c r="J49" s="20">
-        <v>445.11053339715102</v>
+        <v>445.11053339716699</v>
       </c>
       <c r="K49" s="20">
         <v>442.556335177439</v>
       </c>
       <c r="L49" s="20">
-        <v>449.17454552860801</v>
+        <v>449.17454552859601</v>
       </c>
       <c r="M49" s="20">
-        <v>446.43302187524603</v>
+        <v>446.433021875267</v>
       </c>
       <c r="N49" s="20">
-        <v>435.66448297895403</v>
+        <v>435.66448297894601</v>
       </c>
       <c r="O49" s="20">
-        <v>440.58307948030699</v>
+        <v>440.58307948030301</v>
       </c>
       <c r="P49" s="20">
         <v>455.97097860323697</v>
       </c>
       <c r="Q49" s="20">
-        <v>462.029650290848</v>
+        <v>462.02965029085601</v>
       </c>
       <c r="R49" s="20">
-        <v>446.37879561728698</v>
+        <v>446.378795617283</v>
       </c>
       <c r="S49" s="20">
-        <v>418.83579787687</v>
+        <v>418.83579787686602</v>
       </c>
       <c r="T49" s="20">
-        <v>417.84756178943798</v>
+        <v>417.84756178944201</v>
       </c>
       <c r="U49" s="20">
-        <v>400.22944389563497</v>
+        <v>400.22944389563099</v>
       </c>
       <c r="V49" s="20">
-        <v>412.90111824725199</v>
+        <v>412.90111824724499</v>
       </c>
       <c r="W49" s="20">
-        <v>423.05193838753399</v>
+        <v>423.051938387549</v>
       </c>
       <c r="X49" s="20">
         <v>431.01661318760802</v>
       </c>
       <c r="Y49" s="20">
-        <v>433.15735686254698</v>
+        <v>433.15735686255903</v>
       </c>
       <c r="Z49" s="20">
         <v>437.81058111595598</v>
       </c>
       <c r="AA49" s="20">
-        <v>442.439949474164</v>
+        <v>442.43994947417599</v>
       </c>
       <c r="AB49" s="20">
         <v>444.37266070894299</v>
@@ -7488,28 +7470,28 @@
         <v>446.16412286755201</v>
       </c>
       <c r="AD49" s="20">
-        <v>446.66968087910402</v>
+        <v>446.669680879108</v>
       </c>
       <c r="AE49" s="20">
-        <v>420.87713760934997</v>
+        <v>420.87713760935401</v>
       </c>
       <c r="AF49" s="20">
-        <v>412.41376853275301</v>
+        <v>412.41376853273903</v>
       </c>
       <c r="AG49" s="20">
-        <v>408.32362717276999</v>
+        <v>408.32362717277698</v>
       </c>
       <c r="AH49" s="20">
-        <v>407.98608167628203</v>
+        <v>407.98608167629499</v>
       </c>
       <c r="AI49" s="20">
-        <v>417.34677837088998</v>
+        <v>417.34677837088299</v>
       </c>
       <c r="AJ49" s="20">
-        <v>430.22008620335498</v>
+        <v>430.22008620333997</v>
       </c>
       <c r="AK49" s="20">
-        <v>438.34932369794001</v>
+        <v>438.59731040650399</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
@@ -13740,82 +13722,82 @@
         <v/>
       </c>
       <c r="E106" s="21">
-        <v>8029.9666666666699</v>
+        <v>8027.6560606060602</v>
       </c>
       <c r="F106" s="22">
-        <v>8047.4850666666698</v>
+        <v>8047.0776942355897</v>
       </c>
       <c r="G106" s="22">
-        <v>8049.0762666666697</v>
+        <v>8040.4191919191899</v>
       </c>
       <c r="H106" s="22">
-        <v>8069.3133333333299</v>
+        <v>8054.5333333333301</v>
       </c>
       <c r="I106" s="22">
-        <v>8117.5552565837497</v>
+        <v>8104.6015873015904</v>
       </c>
       <c r="J106" s="22">
-        <v>8110.18699305871</v>
+        <v>8100.1633173843702</v>
       </c>
       <c r="K106" s="22">
-        <v>8185.7423517921197</v>
+        <v>8155.7092352092304</v>
       </c>
       <c r="L106" s="22">
-        <v>8178.14722229586</v>
+        <v>8149.9682539682599</v>
       </c>
       <c r="M106" s="22">
-        <v>8150.1166666666704</v>
+        <v>8135.1025252525296</v>
       </c>
       <c r="N106" s="22">
-        <v>8124.3500000000004</v>
+        <v>8111.98718275189</v>
       </c>
       <c r="O106" s="22">
-        <v>8127.4499999999998</v>
+        <v>8095.0949934123901</v>
       </c>
       <c r="P106" s="22">
-        <v>8315.1566666666695</v>
+        <v>8155.2823232323199</v>
       </c>
       <c r="Q106" s="22">
-        <v>8332.1454673781609</v>
+        <v>8191.5487867784204</v>
       </c>
       <c r="R106" s="22">
-        <v>8353.6943548812505</v>
+        <v>8213.0089126559706</v>
       </c>
       <c r="S106" s="22">
-        <v>8366.1344766618295</v>
+        <v>8276.0814354727408</v>
       </c>
       <c r="T106" s="22">
-        <v>8342.9261825881695</v>
+        <v>8298.7336219336194</v>
       </c>
       <c r="U106" s="22">
-        <v>8302.9747366613592</v>
+        <v>8285.9100288600293</v>
       </c>
       <c r="V106" s="22">
-        <v>8389.2884902305505</v>
+        <v>8337.1096681096697</v>
       </c>
       <c r="W106" s="22">
-        <v>8604.4935434777799</v>
+        <v>8460.3027009222606</v>
       </c>
       <c r="X106" s="22">
-        <v>8627.3784869528699</v>
+        <v>8522.0166666666701</v>
       </c>
       <c r="Y106" s="22">
-        <v>8615.3460492377108</v>
+        <v>8552.7030303030297</v>
       </c>
       <c r="Z106" s="22">
-        <v>8718.6635562254305</v>
+        <v>8613.7795055821407</v>
       </c>
       <c r="AA106" s="22">
-        <v>8862.6381585912204</v>
+        <v>8715.5138653616905</v>
       </c>
       <c r="AB106" s="22">
-        <v>8990.5093540823309</v>
+        <v>8835.6399711399699</v>
       </c>
       <c r="AC106" s="22">
-        <v>9060.7211074890802</v>
+        <v>8881.5336940836896</v>
       </c>
       <c r="AD106" s="22">
-        <v>9187.8229609361806</v>
+        <v>8974.4183501683492</v>
       </c>
       <c r="AE106" s="22">
         <v>9078.3977037455297</v>
@@ -14058,7 +14040,7 @@
         <v>15.4136021403333</v>
       </c>
       <c r="AK108" s="22">
-        <v>15.2398600645845</v>
+        <v>15.227718928333299</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
@@ -16499,17 +16481,17 @@
       <c r="AJ130" s="22">
         <v>119.48086997898901</v>
       </c>
-      <c r="AK130" s="22" t="s">
-        <v>417</v>
+      <c r="AK130" s="22">
+        <v>120.09202681992301</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C131" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>419</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16617,10 +16599,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="C132" s="17" t="s">
-        <v>421</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16728,10 +16710,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="C133" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16833,16 +16815,16 @@
         <v>35.433433333333298</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C134" s="17" t="s">
         <v>425</v>
-      </c>
-      <c r="C134" s="17" t="s">
-        <v>426</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16950,10 +16932,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>428</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17052,19 +17034,19 @@
         <v>410.69999999999999</v>
       </c>
       <c r="AJ135" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK135" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="AK135" s="20" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C136" s="17" t="s">
         <v>431</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>432</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17172,10 +17154,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="C137" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="C137" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17283,10 +17265,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="C138" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C138" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17394,10 +17376,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C139" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="C139" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17505,10 +17487,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C140" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>440</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17616,10 +17598,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17727,10 +17709,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C142" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C142" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17832,16 +17814,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>446</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17949,10 +17931,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C144" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>449</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18060,10 +18042,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>450</v>
-      </c>
-      <c r="C145" s="17" t="s">
-        <v>451</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18171,10 +18153,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>453</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18282,10 +18264,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C147" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="C147" s="17" t="s">
-        <v>455</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18393,10 +18375,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C148" s="17" t="s">
         <v>456</v>
-      </c>
-      <c r="C148" s="17" t="s">
-        <v>457</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18504,10 +18486,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="C149" s="17" t="s">
         <v>458</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>459</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18608,17 +18590,17 @@
       <c r="AJ149" s="20">
         <v>72.598266666666703</v>
       </c>
-      <c r="AK149" s="20" t="s">
-        <v>460</v>
+      <c r="AK149" s="20">
+        <v>85.630066666666707</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18726,10 +18708,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18837,10 +18819,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18948,10 +18930,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19041,28 +19023,28 @@
         <v>20.561389538239499</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH153" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI153" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="AH153" s="20" t="s">
+      <c r="AJ153" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="AI153" s="20" t="s">
+      <c r="AK153" s="20" t="s">
         <v>471</v>
-      </c>
-      <c r="AJ153" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="AK153" s="20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19170,10 +19152,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19281,10 +19263,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19392,10 +19374,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19503,10 +19485,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19614,10 +19596,10 @@
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19725,10 +19707,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19836,10 +19818,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19947,10 +19929,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -20010,58 +19992,58 @@
         <v>23522.3428300095</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y162" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="Z162" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AA162" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AB162" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AC162" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AD162" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="AC162" s="22" t="s">
+      <c r="AE162" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="AD162" s="22" t="s">
+      <c r="AF162" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="AE162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="AF162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="AG162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>502</v>
       </c>
-      <c r="AH162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="AI162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>504</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20169,10 +20151,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20274,16 +20256,16 @@
         <v>412.16729370967698</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20373,28 +20355,28 @@
         <v>185.46943825396801</v>
       </c>
       <c r="AG165" s="20" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH165" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI165" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="AH165" s="20" t="s">
+      <c r="AJ165" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AI165" s="20" t="s">
+      <c r="AK165" s="20" t="s">
         <v>516</v>
-      </c>
-      <c r="AJ165" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="AK165" s="20" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20502,10 +20484,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20613,10 +20595,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20724,10 +20706,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20820,25 +20802,25 @@
         <v>195.01333333333301</v>
       </c>
       <c r="AH169" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="AI169" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AJ169" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="AI169" s="20" t="s">
+      <c r="AK169" s="20" t="s">
         <v>528</v>
-      </c>
-      <c r="AJ169" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="AK169" s="20" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20946,10 +20928,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21057,10 +21039,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21168,10 +21150,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21234,55 +21216,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z173" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AA173" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AB173" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AC173" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AD173" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AC173" s="20" t="s">
+      <c r="AE173" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AF173" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AG173" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="AF173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="AG173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="AH173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="AI173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>550</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>551</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21390,10 +21372,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21501,10 +21483,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21612,10 +21594,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21723,10 +21705,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21834,10 +21816,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21945,10 +21927,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22049,17 +22031,17 @@
       <c r="AJ180" s="22">
         <v>2.2646304200362901</v>
       </c>
-      <c r="AK180" s="22" t="s">
-        <v>567</v>
+      <c r="AK180" s="22">
+        <v>2.2790872157287301</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22167,10 +22149,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22278,10 +22260,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22389,10 +22371,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22500,10 +22482,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22611,10 +22593,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22722,10 +22704,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22833,10 +22815,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22944,10 +22926,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23055,10 +23037,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23166,10 +23148,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23267,20 +23249,20 @@
       <c r="AI191" s="20">
         <v>110.73333333333299</v>
       </c>
-      <c r="AJ191" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="AK191" s="20" t="s">
-        <v>591</v>
+      <c r="AJ191" s="20">
+        <v>111.463333333333</v>
+      </c>
+      <c r="AK191" s="20">
+        <v>112.54900000000001</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23340,58 +23322,58 @@
         <v>71359.309366666697</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB192" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AC192" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AD192" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AE192" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AF192" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="AB192" s="22" t="s">
+      <c r="AG192" s="22" t="s">
         <v>599</v>
       </c>
-      <c r="AC192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>600</v>
       </c>
-      <c r="AD192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>601</v>
       </c>
-      <c r="AE192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="AF192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>603</v>
-      </c>
-      <c r="AG192" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>606</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23499,10 +23481,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23610,10 +23592,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23714,83 +23696,83 @@
       <c r="AJ195" s="20">
         <v>17.046973096753401</v>
       </c>
-      <c r="AK195" s="20" t="s">
-        <v>615</v>
+      <c r="AK195" s="20">
+        <v>17.791292660121499</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>615</v>
+      </c>
+      <c r="I196" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="K196" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="L196" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="M196" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="N196" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="O196" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>628</v>
       </c>
-      <c r="P196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="Q196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>630</v>
       </c>
-      <c r="R196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="S196" s="22" t="s">
+      <c r="Y196" s="22" t="s">
         <v>632</v>
-      </c>
-      <c r="T196" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="U196" s="22" t="s">
-        <v>634</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>636</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>637</v>
-      </c>
-      <c r="Y196" s="22" t="s">
-        <v>638</v>
       </c>
       <c r="Z196" s="22">
         <v>4.4076787878787904</v>
@@ -23832,10 +23814,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23943,10 +23925,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24054,10 +24036,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_6Q.xlsx
+++ b/FOREX/data/FOREX_6Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -701,28 +701,106 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
@@ -740,175 +818,85 @@
     <t>...</t>
   </si>
   <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Grenada</t>
+    <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>Israel</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Jamaica</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Japan</t>
@@ -2436,7 +2424,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AK199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
+    <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
     </sheetView>
   </sheetViews>
@@ -10265,17 +10253,17 @@
       <c r="AJ74" s="22">
         <v>52.272702313473602</v>
       </c>
-      <c r="AK74" s="22" t="s">
-        <v>229</v>
+      <c r="AK74" s="22">
+        <v>52.801055481585301</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>230</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>231</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10383,10 +10371,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>233</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10494,10 +10482,10 @@
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10605,10 +10593,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>237</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10656,70 +10644,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S78" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="T78" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="T78" s="22" t="s">
+      <c r="U78" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="U78" s="22" t="s">
+      <c r="V78" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="V78" s="22" t="s">
+      <c r="W78" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="W78" s="22" t="s">
+      <c r="X78" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="X78" s="22" t="s">
+      <c r="Y78" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="Y78" s="22" t="s">
+      <c r="Z78" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="Z78" s="22" t="s">
+      <c r="AA78" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="AA78" s="22" t="s">
+      <c r="AB78" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="AB78" s="22" t="s">
+      <c r="AC78" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="AC78" s="22" t="s">
+      <c r="AD78" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="AD78" s="22" t="s">
+      <c r="AE78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="AE78" s="22" t="s">
+      <c r="AF78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="AF78" s="22" t="s">
+      <c r="AG78" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="AG78" s="22" t="s">
+      <c r="AH78" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AH78" s="22" t="s">
+      <c r="AI78" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="AI78" s="22" t="s">
+      <c r="AJ78" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="AJ78" s="22" t="s">
+      <c r="AK78" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="AK78" s="22" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10827,10 +10815,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10938,10 +10926,10 @@
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11049,10 +11037,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11145,25 +11133,25 @@
         <v>10049.639775507199</v>
       </c>
       <c r="AH82" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI82" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="AI82" s="22" t="s">
+      <c r="AJ82" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="AJ82" s="22" t="s">
+      <c r="AK82" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="AK82" s="22" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11271,10 +11259,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11382,10 +11370,10 @@
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>273</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>274</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11493,10 +11481,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>275</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>276</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11604,10 +11592,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>278</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11715,10 +11703,10 @@
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>280</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11826,10 +11814,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>281</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11937,10 +11925,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>284</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12048,10 +12036,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>285</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>286</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12159,10 +12147,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12264,16 +12252,16 @@
         <v>1450</v>
       </c>
       <c r="AK92" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12381,10 +12369,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>293</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12492,10 +12480,10 @@
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12590,23 +12578,23 @@
       <c r="AH95" s="20">
         <v>150.33648454545499</v>
       </c>
-      <c r="AI95" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AJ95" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AK95" s="20" t="s">
-        <v>298</v>
+      <c r="AI95" s="20">
+        <v>151.989988333333</v>
+      </c>
+      <c r="AJ95" s="20">
+        <v>153.67323598484799</v>
+      </c>
+      <c r="AK95" s="20">
+        <v>154.93011308080801</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12714,10 +12702,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12825,10 +12813,10 @@
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12936,10 +12924,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13047,10 +13035,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13158,10 +13146,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13269,10 +13257,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13380,10 +13368,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13491,10 +13479,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13602,10 +13590,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13713,10 +13701,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13824,10 +13812,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13935,10 +13923,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14046,10 +14034,10 @@
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14145,22 +14133,22 @@
         <v>171.87432282051299</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14247,31 +14235,31 @@
         <v>1.3794435644989</v>
       </c>
       <c r="AF110" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG110" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH110" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI110" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ110" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="AG110" s="22" t="s">
+      <c r="AK110" s="22" t="s">
         <v>333</v>
-      </c>
-      <c r="AH110" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="AI110" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="AJ110" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK110" s="22" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14289,100 +14277,100 @@
         <v>2.7608333333333301</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K111" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="L111" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="M111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="AF111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AG111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>364</v>
-      </c>
-      <c r="AH111" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AI111" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ111" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14490,10 +14478,10 @@
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14592,19 +14580,19 @@
         <v>818.15012014397803</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AK113" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14712,10 +14700,10 @@
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14823,10 +14811,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14934,10 +14922,10 @@
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -15030,25 +15018,25 @@
         <v>35.996666666666698</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AK117" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15156,10 +15144,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15267,10 +15255,10 @@
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15378,10 +15366,10 @@
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15489,10 +15477,10 @@
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15600,10 +15588,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15711,10 +15699,10 @@
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15822,10 +15810,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15933,10 +15921,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16044,10 +16032,10 @@
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16140,25 +16128,25 @@
         <v>1390.43333333333</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AK127" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16266,10 +16254,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16377,10 +16365,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16488,10 +16476,10 @@
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16599,10 +16587,10 @@
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16710,10 +16698,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16815,16 +16803,16 @@
         <v>35.433433333333298</v>
       </c>
       <c r="AK133" s="20" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16932,10 +16920,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17034,19 +17022,19 @@
         <v>410.69999999999999</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17154,10 +17142,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17265,10 +17253,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17376,10 +17364,10 @@
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17487,10 +17475,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17598,10 +17586,10 @@
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17709,10 +17697,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17814,16 +17802,16 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17931,10 +17919,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -18042,10 +18030,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -18153,10 +18141,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -18264,10 +18252,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -18375,10 +18363,10 @@
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18486,10 +18474,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18597,10 +18585,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18708,10 +18696,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18819,10 +18807,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18930,10 +18918,10 @@
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -19023,28 +19011,28 @@
         <v>20.561389538239499</v>
       </c>
       <c r="AG153" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH153" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI153" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ153" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="AK153" s="20" t="s">
         <v>467</v>
-      </c>
-      <c r="AH153" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="AI153" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="AJ153" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="AK153" s="20" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19152,10 +19140,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19263,10 +19251,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19374,10 +19362,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19485,10 +19473,10 @@
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19596,10 +19584,10 @@
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19707,10 +19695,10 @@
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19818,10 +19806,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19929,10 +19917,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19992,58 +19980,58 @@
         <v>23522.3428300095</v>
       </c>
       <c r="W162" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="X162" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y162" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z162" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA162" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="X162" s="22" t="s">
+      <c r="AB162" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="Y162" s="22" t="s">
+      <c r="AC162" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="Z162" s="22" t="s">
+      <c r="AD162" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="AA162" s="22" t="s">
+      <c r="AE162" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="AB162" s="22" t="s">
+      <c r="AF162" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="AC162" s="22" t="s">
+      <c r="AG162" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="AD162" s="22" t="s">
+      <c r="AH162" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="AE162" s="22" t="s">
+      <c r="AI162" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="AF162" s="22" t="s">
+      <c r="AJ162" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="AG162" s="22" t="s">
+      <c r="AK162" s="22" t="s">
         <v>500</v>
-      </c>
-      <c r="AH162" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="AI162" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="AJ162" s="22" t="s">
-        <v>503</v>
-      </c>
-      <c r="AK162" s="22" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20151,10 +20139,10 @@
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20256,16 +20244,16 @@
         <v>412.16729370967698</v>
       </c>
       <c r="AK164" s="22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20355,28 +20343,28 @@
         <v>185.46943825396801</v>
       </c>
       <c r="AG165" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="AH165" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="AI165" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="AJ165" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="AK165" s="20" t="s">
         <v>512</v>
-      </c>
-      <c r="AH165" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="AI165" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="AJ165" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="AK165" s="20" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20484,10 +20472,10 @@
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20595,10 +20583,10 @@
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20706,10 +20694,10 @@
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20802,25 +20790,25 @@
         <v>195.01333333333301</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20928,10 +20916,10 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21039,10 +21027,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21150,10 +21138,10 @@
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21216,55 +21204,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y173" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z173" s="20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA173" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB173" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="Y173" s="20" t="s">
+      <c r="AC173" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="Z173" s="20" t="s">
+      <c r="AD173" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="AA173" s="20" t="s">
+      <c r="AE173" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="AB173" s="20" t="s">
+      <c r="AF173" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="AC173" s="20" t="s">
+      <c r="AG173" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="AD173" s="20" t="s">
+      <c r="AH173" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="AE173" s="20" t="s">
+      <c r="AI173" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="AF173" s="20" t="s">
+      <c r="AJ173" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="AG173" s="20" t="s">
+      <c r="AK173" s="20" t="s">
         <v>546</v>
-      </c>
-      <c r="AH173" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="AI173" s="20" t="s">
-        <v>548</v>
-      </c>
-      <c r="AJ173" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK173" s="20" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21372,10 +21360,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21483,10 +21471,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21594,10 +21582,10 @@
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21705,10 +21693,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21816,10 +21804,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21927,10 +21915,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22038,10 +22026,10 @@
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22149,10 +22137,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22260,10 +22248,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22371,10 +22359,10 @@
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22482,10 +22470,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22593,10 +22581,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22704,10 +22692,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22815,10 +22803,10 @@
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22926,10 +22914,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23037,10 +23025,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23148,10 +23136,10 @@
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23259,10 +23247,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23322,58 +23310,58 @@
         <v>71359.309366666697</v>
       </c>
       <c r="W192" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="X192" s="22" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA192" s="22" t="s">
         <v>589</v>
       </c>
-      <c r="X192" s="22" t="s">
+      <c r="AB192" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="Y192" s="22" t="s">
+      <c r="AC192" s="22" t="s">
         <v>591</v>
       </c>
-      <c r="Z192" s="22" t="s">
+      <c r="AD192" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="AA192" s="22" t="s">
+      <c r="AE192" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="AB192" s="22" t="s">
+      <c r="AF192" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="AC192" s="22" t="s">
+      <c r="AG192" s="22" t="s">
         <v>595</v>
       </c>
-      <c r="AD192" s="22" t="s">
+      <c r="AH192" s="22" t="s">
         <v>596</v>
       </c>
-      <c r="AE192" s="22" t="s">
+      <c r="AI192" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="AF192" s="22" t="s">
+      <c r="AJ192" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="AG192" s="22" t="s">
+      <c r="AK192" s="22" t="s">
         <v>599</v>
-      </c>
-      <c r="AH192" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="AI192" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ192" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="AK192" s="22" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23481,10 +23469,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23592,10 +23580,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23703,76 +23691,76 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="G196" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="I196" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="J196" s="22" t="s">
         <v>613</v>
       </c>
-      <c r="G196" s="22" t="s">
+      <c r="K196" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="H196" s="22" t="s">
+      <c r="L196" s="22" t="s">
         <v>615</v>
       </c>
-      <c r="I196" s="22" t="s">
+      <c r="M196" s="22" t="s">
         <v>616</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="N196" s="22" t="s">
         <v>617</v>
       </c>
-      <c r="K196" s="22" t="s">
+      <c r="O196" s="22" t="s">
         <v>618</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="P196" s="22" t="s">
         <v>619</v>
       </c>
-      <c r="M196" s="22" t="s">
+      <c r="Q196" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="N196" s="22" t="s">
+      <c r="R196" s="22" t="s">
         <v>621</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="S196" s="22" t="s">
         <v>622</v>
       </c>
-      <c r="P196" s="22" t="s">
+      <c r="T196" s="22" t="s">
         <v>623</v>
       </c>
-      <c r="Q196" s="22" t="s">
+      <c r="U196" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="R196" s="22" t="s">
+      <c r="V196" s="22" t="s">
         <v>625</v>
       </c>
-      <c r="S196" s="22" t="s">
+      <c r="W196" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="T196" s="22" t="s">
+      <c r="X196" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="U196" s="22" t="s">
+      <c r="Y196" s="22" t="s">
         <v>628</v>
-      </c>
-      <c r="V196" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="W196" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="X196" s="22" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y196" s="22" t="s">
-        <v>632</v>
       </c>
       <c r="Z196" s="22">
         <v>4.4076787878787904</v>
@@ -23814,10 +23802,10 @@
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23925,10 +23913,10 @@
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24036,10 +24024,10 @@
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>

--- a/FOREX/data/FOREX_6Q.xlsx
+++ b/FOREX/data/FOREX_6Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -131,6 +131,9 @@
     <t>2022Q1</t>
   </si>
   <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -398,204 +404,591 @@
     <t>Units</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Hong Kong</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Macao</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>China, P.R.: Mainland</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Comoros, Union of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>Congo, Dem. Rep. of the</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Congo, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Côte d'Ivoire</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Central African Rep.</t>
+    <t>Croatia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Curaçao and Sint Maarten</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>Curaçao, Kingdom of the Netherlands</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Hong Kong</t>
+    <t>Czech Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Macao</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>China, P.R.: Mainland</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Dominica</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Egypt, Arab Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eritrea, The State of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Eswatini, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Ethiopia, The Federal Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Euro Area</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Comoros, Union of the</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Dem. Rep. of the</t>
+    <t>French Polynesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Congo, Rep. of</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Gambia, The</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Côte d'Ivoire</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Croatia, Rep. of</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao and Sint Maarten</t>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Curaçao, Kingdom of the Netherlands</t>
+    <t>Greenland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Czech Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Grenada</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Guatemala</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominica</t>
+    <t>Guinea</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Dominican Rep.</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ecuador</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Egypt, Arab Rep. of</t>
+    <t>Haiti</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>El Salvador</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Equatorial Guinea, Rep. of</t>
+    <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eritrea, The State of</t>
+    <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Eswatini, Kingdom of</t>
+    <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ethiopia, The Federal Dem. Rep. of</t>
+    <t>Indonesia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Iran, Islamic Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kazakhstan, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Korea, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kosovo, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lao People's Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lesotho, Kingdom of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -608,13 +1001,16 @@
     <t>...</t>
   </si>
   <si>
-    <t>Euro Area</t>
+    <t>Libya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
   </si>
   <si>
     <t>Units</t>
@@ -677,54 +1073,147 @@
     <t>...</t>
   </si>
   <si>
-    <t>Fiji, Rep. of</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>French Polynesia</t>
+    <t>Malawi</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gabon</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Georgia</t>
+    <t>Mali</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Ghana</t>
+    <t>Mauritania, Islamic Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Greenland</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Moldova, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Mozambique, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -740,6 +1229,54 @@
     <t>...</t>
   </si>
   <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nauru, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -749,15 +1286,123 @@
     <t>...</t>
   </si>
   <si>
+    <t>North Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Palau, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
     <t>...</t>
   </si>
   <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Poland, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>San Marino, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe, Dem. Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -776,36 +1421,171 @@
     <t>...</t>
   </si>
   <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Serbia, Rep. of</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sint Maarten, Kingdom of the Netherlands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Grenada</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guatemala</t>
+    <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guernsey</t>
+    <t>Sri Lanka</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>St. Lucia</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>St. Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
@@ -818,955 +1598,199 @@
     <t>...</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Guyana</t>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Haiti</t>
+    <t>Switzerland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Honduras</t>
+    <t>Syrian Arab Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Hungary</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iceland</t>
+    <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Tanzania, United Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Indonesia</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iran, Islamic Rep. of</t>
+    <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Iraq</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>...</t>
   </si>
   <si>
-    <t>Isle of Man</t>
+    <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Israel</t>
+    <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jamaica</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jersey</t>
+    <t>Ukraine</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Jordan</t>
+    <t>United Arab Emirates</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kazakhstan, Rep. of</t>
+    <t>United Kingdom</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kenya</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kiribati</t>
+    <t>Uruguay</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Korea, Rep. of</t>
+    <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kosovo, Rep. of</t>
+    <t>Vanuatu</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kuwait</t>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Kyrgyz Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lao People's Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Lesotho, Kingdom of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Madagascar, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mauritania, Islamic Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Moldova, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Mozambique, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nauru, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>North Macedonia, Republic of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Palau, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Poland, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>San Marino, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Serbia, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sint Maarten, Kingdom of the Netherlands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>South Sudan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>St. Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Lucia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>St. Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Taiwan Province of China</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tajikistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tanzania, United Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Timor-Leste, Dem. Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Uzbekistan, Rep. of</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Venezuela, Rep. Bolivariana de</t>
-  </si>
-  <si>
-    <t>Units</t>
   </si>
   <si>
     <t>...</t>
@@ -2422,7 +2446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK199"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2467,6 +2491,7 @@
     <col min="35" max="35" width="9.710938" customWidth="1"/>
     <col min="36" max="36" width="9.710938" customWidth="1"/>
     <col min="37" max="37" width="9.710938" customWidth="1"/>
+    <col min="38" max="38" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2507,6 +2532,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2548,6 +2574,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2589,6 +2616,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2628,6 +2656,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2669,6 +2698,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2708,6 +2738,7 @@
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2816,17 +2847,20 @@
       <c r="AJ7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK7" s="10" t="s">
+      <c r="AK7" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2919,25 +2953,28 @@
         <v>77.260388256410295</v>
       </c>
       <c r="AH8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ8" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AK8" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="AL8" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3040,15 +3077,18 @@
       </c>
       <c r="AK9" s="20">
         <v>108.64</v>
+      </c>
+      <c r="AL9" s="20">
+        <v>112.95999999999999</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3151,99 +3191,102 @@
       </c>
       <c r="AK10" s="22">
         <v>140.85939999999999</v>
+      </c>
+      <c r="AL10" s="22">
+        <v>144.98173333333301</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF11" s="20">
         <v>0.83856632369848805</v>
@@ -3262,15 +3305,18 @@
       </c>
       <c r="AK11" s="20">
         <v>0.89101231472579301</v>
+      </c>
+      <c r="AL11" s="20">
+        <v>0.938694723821484</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3373,15 +3419,18 @@
       </c>
       <c r="AK12" s="22">
         <v>505.44397629211898</v>
+      </c>
+      <c r="AL12" s="22">
+        <v>420.92355665869201</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3483,16 +3532,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK13" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL13" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3594,16 +3646,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK14" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL14" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -3706,15 +3761,18 @@
       </c>
       <c r="AK15" s="20">
         <v>106.482666666667</v>
+      </c>
+      <c r="AL15" s="20">
+        <v>117.85146666666699</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3817,15 +3875,18 @@
       </c>
       <c r="AK16" s="22">
         <v>486.39556856842103</v>
+      </c>
+      <c r="AL16" s="22">
+        <v>450.07455988456002</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3927,16 +3988,19 @@
         <v>1.79</v>
       </c>
       <c r="AK17" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="AL17" s="20">
         <v>1.79</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4039,15 +4103,18 @@
       </c>
       <c r="AK18" s="22">
         <v>1.38236575871562</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>1.39741771382737</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4149,16 +4216,19 @@
         <v>1.7</v>
       </c>
       <c r="AK19" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="AL19" s="20">
         <v>1.7</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4260,16 +4330,19 @@
         <v>1</v>
       </c>
       <c r="AK20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4371,16 +4444,19 @@
         <v>0.376</v>
       </c>
       <c r="AK21" s="20">
+        <v>0.376</v>
+      </c>
+      <c r="AL21" s="20">
         <v>0.376</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4483,15 +4559,18 @@
       </c>
       <c r="AK22" s="22">
         <v>86.004368471035093</v>
+      </c>
+      <c r="AL22" s="22">
+        <v>88.482392307692294</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4593,16 +4672,19 @@
         <v>2</v>
       </c>
       <c r="AK23" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -4705,15 +4787,18 @@
       </c>
       <c r="AK24" s="22">
         <v>2.7951999999999999</v>
+      </c>
+      <c r="AL24" s="22">
+        <v>2.6324000000000001</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -4815,88 +4900,91 @@
         <v>2</v>
       </c>
       <c r="AK25" s="20">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
       </c>
       <c r="E26" s="21">
-        <v>478.92946545705598</v>
+        <v>478.92946545707298</v>
       </c>
       <c r="F26" s="22">
-        <v>478.426167410728</v>
+        <v>478.42616741071402</v>
       </c>
       <c r="G26" s="22">
-        <v>494.853080861249</v>
+        <v>494.85308086124599</v>
       </c>
       <c r="H26" s="22">
         <v>524.84760743866195</v>
       </c>
       <c r="I26" s="22">
-        <v>582.48116199416302</v>
+        <v>582.48116199414301</v>
       </c>
       <c r="J26" s="22">
-        <v>593.48071119620101</v>
+        <v>593.48071119622296</v>
       </c>
       <c r="K26" s="22">
         <v>590.07511356991904</v>
       </c>
       <c r="L26" s="22">
-        <v>598.89939403814401</v>
+        <v>598.89939403812798</v>
       </c>
       <c r="M26" s="22">
-        <v>595.24402916699501</v>
+        <v>595.24402916702195</v>
       </c>
       <c r="N26" s="22">
-        <v>580.88597730527204</v>
+        <v>580.88597730526203</v>
       </c>
       <c r="O26" s="22">
-        <v>587.44410597374304</v>
+        <v>587.44410597373803</v>
       </c>
       <c r="P26" s="22">
         <v>607.961304804316</v>
       </c>
       <c r="Q26" s="22">
-        <v>616.03953372113006</v>
+        <v>616.03953372114199</v>
       </c>
       <c r="R26" s="22">
-        <v>595.17172748971598</v>
+        <v>595.17172748970995</v>
       </c>
       <c r="S26" s="22">
-        <v>558.44773050249296</v>
+        <v>558.44773050248796</v>
       </c>
       <c r="T26" s="22">
-        <v>557.13008238591794</v>
+        <v>557.13008238592204</v>
       </c>
       <c r="U26" s="22">
-        <v>533.63925852751299</v>
+        <v>533.63925852750799</v>
       </c>
       <c r="V26" s="22">
-        <v>550.53482432966905</v>
+        <v>550.53482432965995</v>
       </c>
       <c r="W26" s="22">
-        <v>564.06925118337904</v>
+        <v>564.06925118339802</v>
       </c>
       <c r="X26" s="22">
         <v>574.68881758347698</v>
       </c>
       <c r="Y26" s="22">
-        <v>577.54314248339597</v>
+        <v>577.543142483412</v>
       </c>
       <c r="Z26" s="22">
         <v>583.74744148794196</v>
       </c>
       <c r="AA26" s="22">
-        <v>589.91993263221798</v>
+        <v>589.91993263223401</v>
       </c>
       <c r="AB26" s="22">
         <v>592.49688094525698</v>
@@ -4905,37 +4993,40 @@
         <v>594.88549715673605</v>
       </c>
       <c r="AD26" s="22">
-        <v>595.55957450547203</v>
+        <v>595.55957450547703</v>
       </c>
       <c r="AE26" s="22">
-        <v>561.16951681246701</v>
+        <v>561.16951681247099</v>
       </c>
       <c r="AF26" s="22">
-        <v>549.88502471033803</v>
+        <v>549.88502471031904</v>
       </c>
       <c r="AG26" s="22">
-        <v>544.43150289702703</v>
+        <v>544.43150289703601</v>
       </c>
       <c r="AH26" s="22">
-        <v>544.04766211136905</v>
+        <v>543.98144223505994</v>
       </c>
       <c r="AI26" s="22">
-        <v>556.46466140290602</v>
+        <v>556.462371161178</v>
       </c>
       <c r="AJ26" s="22">
-        <v>573.46657040873004</v>
+        <v>573.62678160445296</v>
       </c>
       <c r="AK26" s="22">
-        <v>584.46576493058706</v>
+        <v>584.79641387533798</v>
+      </c>
+      <c r="AL26" s="22">
+        <v>616.12317009351398</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -5037,16 +5128,19 @@
         <v>1</v>
       </c>
       <c r="AK27" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5149,15 +5243,18 @@
       </c>
       <c r="AK28" s="22">
         <v>75.229732581453604</v>
+      </c>
+      <c r="AL28" s="22">
+        <v>77.188475793650795</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5259,16 +5356,19 @@
         <v>6.9100000000000001</v>
       </c>
       <c r="AK29" s="20">
+        <v>6.9100000000000001</v>
+      </c>
+      <c r="AL29" s="20">
         <v>6.9100000000000001</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5371,15 +5471,18 @@
       </c>
       <c r="AK30" s="22">
         <v>1.74269400537634</v>
+      </c>
+      <c r="AL30" s="22">
+        <v>1.8339204071684601</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5482,15 +5585,18 @@
       </c>
       <c r="AK31" s="20">
         <v>11.5767666666667</v>
+      </c>
+      <c r="AL31" s="20">
+        <v>11.998566666666701</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5593,15 +5699,18 @@
       </c>
       <c r="AK32" s="22">
         <v>5.2324218424850004</v>
+      </c>
+      <c r="AL32" s="22">
+        <v>4.9201584377610699</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -5704,15 +5813,18 @@
       </c>
       <c r="AK33" s="20">
         <v>1.3519076086956501</v>
+      </c>
+      <c r="AL33" s="20">
+        <v>1.3775897817460301</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -5815,15 +5927,18 @@
       </c>
       <c r="AK34" s="22">
         <v>1.7430000000000001</v>
+      </c>
+      <c r="AL34" s="22">
+        <v>1.8358666666666701</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -5926,15 +6041,18 @@
       </c>
       <c r="AK35" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL35" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -6035,17 +6153,20 @@
       <c r="AJ36" s="22">
         <v>1998.47956521739</v>
       </c>
-      <c r="AK36" s="22" t="s">
-        <v>128</v>
+      <c r="AK36" s="22">
+        <v>2013.3175323492101</v>
+      </c>
+      <c r="AL36" s="22">
+        <v>2026.95769033333</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6148,15 +6269,18 @@
       </c>
       <c r="AK37" s="20">
         <v>98.234569392684705</v>
+      </c>
+      <c r="AL37" s="20">
+        <v>103.435059350649</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6259,15 +6383,18 @@
       </c>
       <c r="AK38" s="22">
         <v>4087.8283410138301</v>
+      </c>
+      <c r="AL38" s="22">
+        <v>4084.69211469534</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6370,15 +6497,18 @@
       </c>
       <c r="AK39" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL39" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6481,15 +6611,18 @@
       </c>
       <c r="AK40" s="22">
         <v>1.2665428256631901</v>
+      </c>
+      <c r="AL40" s="22">
+        <v>1.27514897660819</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6591,16 +6724,19 @@
         <v>0.83333000000000002</v>
       </c>
       <c r="AK41" s="20">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="AL41" s="20">
         <v>0.83333000000000002</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6703,15 +6839,18 @@
       </c>
       <c r="AK42" s="22">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL42" s="22">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6814,15 +6953,18 @@
       </c>
       <c r="AK43" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL43" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6925,15 +7067,18 @@
       </c>
       <c r="AK44" s="22">
         <v>809.84883413848604</v>
+      </c>
+      <c r="AL44" s="22">
+        <v>840.87793400167095</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -7036,15 +7181,18 @@
       </c>
       <c r="AK45" s="20">
         <v>7.806</v>
+      </c>
+      <c r="AL45" s="20">
+        <v>7.8473333333333297</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7147,15 +7295,18 @@
       </c>
       <c r="AK46" s="22">
         <v>8.0388916666666699</v>
+      </c>
+      <c r="AL46" s="22">
+        <v>8.0815970000000004</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7258,15 +7409,18 @@
       </c>
       <c r="AK47" s="20">
         <v>6.3474048792270503</v>
+      </c>
+      <c r="AL47" s="20">
+        <v>6.61568701754386</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7368,16 +7522,19 @@
         <v>3872.6618989898998</v>
       </c>
       <c r="AK48" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="AL48" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7480,15 +7637,18 @@
       </c>
       <c r="AK49" s="20">
         <v>438.59731040650399</v>
+      </c>
+      <c r="AL49" s="20">
+        <v>462.092377570135</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7591,15 +7751,18 @@
       </c>
       <c r="AK50" s="22">
         <v>1999.88741657895</v>
+      </c>
+      <c r="AL50" s="22">
+        <v>2004.23783968254</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7702,15 +7865,18 @@
       </c>
       <c r="AK51" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL51" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7813,15 +7979,18 @@
       </c>
       <c r="AK52" s="22">
         <v>643.693458141321</v>
+      </c>
+      <c r="AL52" s="22">
+        <v>673.55489964157698</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7924,15 +8093,18 @@
       </c>
       <c r="AK53" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL53" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -8035,15 +8207,18 @@
       </c>
       <c r="AK54" s="22">
         <v>6.7147273333333297</v>
+      </c>
+      <c r="AL54" s="22">
+        <v>7.0648863333333303</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8145,16 +8320,19 @@
         <v>1.79</v>
       </c>
       <c r="AK55" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="AL55" s="20">
         <v>1.79</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8256,16 +8434,19 @@
         <v>1.79</v>
       </c>
       <c r="AK56" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="AL56" s="22">
         <v>1.79</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8368,15 +8549,18 @@
       </c>
       <c r="AK57" s="20">
         <v>21.959</v>
+      </c>
+      <c r="AL57" s="20">
+        <v>23.130666666666698</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8479,15 +8663,18 @@
       </c>
       <c r="AK58" s="22">
         <v>6.6301126166666702</v>
+      </c>
+      <c r="AL58" s="22">
+        <v>6.9876085000000003</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8589,16 +8776,19 @@
         <v>177.721</v>
       </c>
       <c r="AK59" s="20">
+        <v>177.721</v>
+      </c>
+      <c r="AL59" s="20">
         <v>177.721</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8700,16 +8890,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK60" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL60" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8812,15 +9005,18 @@
       </c>
       <c r="AK61" s="20">
         <v>56.578600000000002</v>
+      </c>
+      <c r="AL61" s="20">
+        <v>55.1736</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8922,16 +9118,19 @@
         <v>1</v>
       </c>
       <c r="AK62" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -9034,15 +9233,18 @@
       </c>
       <c r="AK63" s="20">
         <v>16.001845434782599</v>
+      </c>
+      <c r="AL63" s="20">
+        <v>18.471353968254</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -9144,16 +9346,19 @@
         <v>1</v>
       </c>
       <c r="AK64" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL64" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9256,15 +9461,18 @@
       </c>
       <c r="AK65" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL65" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9366,16 +9574,19 @@
         <v>15.074999999999999</v>
       </c>
       <c r="AK66" s="22">
+        <v>15.074999999999999</v>
+      </c>
+      <c r="AL66" s="22">
         <v>15.074999999999999</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9478,15 +9689,18 @@
       </c>
       <c r="AK67" s="20">
         <v>15.2398600645845</v>
+      </c>
+      <c r="AL67" s="20">
+        <v>15.547340833333299</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9578,26 +9792,29 @@
       <c r="AG68" s="22">
         <v>39.893328835725697</v>
       </c>
-      <c r="AH68" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI68" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ68" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK68" s="22" t="s">
-        <v>197</v>
+      <c r="AH68" s="22">
+        <v>42.528363227513204</v>
+      </c>
+      <c r="AI68" s="22">
+        <v>44.910871212121201</v>
+      </c>
+      <c r="AJ68" s="22">
+        <v>47.602550000000001</v>
+      </c>
+      <c r="AK68" s="22">
+        <v>50.2619347368421</v>
+      </c>
+      <c r="AL68" s="22">
+        <v>51.494066666666697</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -9700,15 +9917,18 @@
       </c>
       <c r="AK69" s="20">
         <v>0.89151638579257197</v>
+      </c>
+      <c r="AL69" s="20">
+        <v>0.93927371777954005</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9756,70 +9976,73 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S70" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="T70" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="U70" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="T70" s="22" t="s">
+      <c r="V70" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="U70" s="22" t="s">
+      <c r="W70" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="V70" s="22" t="s">
+      <c r="X70" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="W70" s="22" t="s">
+      <c r="Y70" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="X70" s="22" t="s">
+      <c r="Z70" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="Y70" s="22" t="s">
+      <c r="AA70" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="Z70" s="22" t="s">
+      <c r="AB70" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="AA70" s="22" t="s">
+      <c r="AC70" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="AB70" s="22" t="s">
+      <c r="AD70" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="AC70" s="22" t="s">
+      <c r="AE70" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="AD70" s="22" t="s">
+      <c r="AF70" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="AE70" s="22" t="s">
+      <c r="AG70" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="AF70" s="22" t="s">
+      <c r="AH70" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="AG70" s="22" t="s">
+      <c r="AI70" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="AH70" s="22" t="s">
+      <c r="AJ70" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="AI70" s="22" t="s">
+      <c r="AK70" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="AJ70" s="22" t="s">
+      <c r="AL70" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="AK70" s="22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9922,15 +10145,18 @@
       </c>
       <c r="AK71" s="20">
         <v>2.12706666666667</v>
+      </c>
+      <c r="AL71" s="20">
+        <v>2.1669590909090899</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -10033,15 +10259,18 @@
       </c>
       <c r="AK72" s="22">
         <v>106.326014237164</v>
+      </c>
+      <c r="AL72" s="22">
+        <v>112.01603717464801</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>226</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -10144,15 +10373,18 @@
       </c>
       <c r="AK73" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL73" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>228</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10255,6 +10487,9 @@
       </c>
       <c r="AK74" s="22">
         <v>52.801055481585301</v>
+      </c>
+      <c r="AL74" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
@@ -10367,6 +10602,9 @@
       <c r="AK75" s="20">
         <v>3.1101666666666699</v>
       </c>
+      <c r="AL75" s="20">
+        <v>2.9969999999999999</v>
+      </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
@@ -10478,6 +10716,9 @@
       <c r="AK76" s="22">
         <v>6.4548333333333296</v>
       </c>
+      <c r="AL76" s="22">
+        <v>7.1430333333333298</v>
+      </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
@@ -10589,6 +10830,9 @@
       <c r="AK77" s="20">
         <v>0.74532729816606902</v>
       </c>
+      <c r="AL77" s="20">
+        <v>0.79648679861029803</v>
+      </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
@@ -10700,14 +10944,17 @@
       <c r="AK78" s="22" t="s">
         <v>255</v>
       </c>
+      <c r="AL78" s="22" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10809,16 +11056,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK79" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL79" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10921,15 +11171,18 @@
       </c>
       <c r="AK80" s="22">
         <v>7.6963016666666704</v>
+      </c>
+      <c r="AL80" s="22">
+        <v>7.6897466666666698</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -11032,15 +11285,18 @@
       </c>
       <c r="AK81" s="20">
         <v>0.74532729816606902</v>
+      </c>
+      <c r="AL81" s="20">
+        <v>0.79648679861029803</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -11133,25 +11389,28 @@
         <v>10049.639775507199</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK82" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="AL82" s="22" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11254,15 +11513,18 @@
       </c>
       <c r="AK83" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL83" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11364,16 +11626,19 @@
         <v>208.5</v>
       </c>
       <c r="AK84" s="22">
+        <v>208.5</v>
+      </c>
+      <c r="AL84" s="22">
         <v>208.5</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11476,15 +11741,18 @@
       </c>
       <c r="AK85" s="20">
         <v>102.61759508902399</v>
+      </c>
+      <c r="AL85" s="20" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11587,15 +11855,18 @@
       </c>
       <c r="AK86" s="22">
         <v>24.4317375362319</v>
+      </c>
+      <c r="AL86" s="22">
+        <v>24.368810990861</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11698,15 +11969,18 @@
       </c>
       <c r="AK87" s="20">
         <v>324.5</v>
+      </c>
+      <c r="AL87" s="20">
+        <v>361.95333333333298</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11809,15 +12083,18 @@
       </c>
       <c r="AK88" s="22">
         <v>128.15384610075901</v>
+      </c>
+      <c r="AL88" s="22">
+        <v>130.50695238095199</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11920,15 +12197,18 @@
       </c>
       <c r="AK89" s="20">
         <v>75.229732581453604</v>
+      </c>
+      <c r="AL89" s="20">
+        <v>77.187228535353498</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -12031,15 +12311,18 @@
       </c>
       <c r="AK90" s="22">
         <v>14344.9792075517</v>
+      </c>
+      <c r="AL90" s="22">
+        <v>14555.1049824561</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -12141,16 +12424,19 @@
         <v>42000</v>
       </c>
       <c r="AK91" s="20">
+        <v>42000</v>
+      </c>
+      <c r="AL91" s="20">
         <v>42000</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12251,17 +12537,20 @@
       <c r="AJ92" s="22">
         <v>1450</v>
       </c>
-      <c r="AK92" s="22" t="s">
-        <v>288</v>
+      <c r="AK92" s="22">
+        <v>1450</v>
+      </c>
+      <c r="AL92" s="22">
+        <v>1450</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12364,15 +12653,18 @@
       </c>
       <c r="AK93" s="20">
         <v>0.74532729816606902</v>
+      </c>
+      <c r="AL93" s="20">
+        <v>0.79648679861029803</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12475,15 +12767,18 @@
       </c>
       <c r="AK94" s="22">
         <v>3.1971563492063502</v>
+      </c>
+      <c r="AL94" s="22">
+        <v>3.3460899470899501</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12586,15 +12881,18 @@
       </c>
       <c r="AK95" s="20">
         <v>154.93011308080801</v>
+      </c>
+      <c r="AL95" s="20">
+        <v>153.79582710754201</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12697,15 +12995,18 @@
       </c>
       <c r="AK96" s="22">
         <v>116.191144781145</v>
+      </c>
+      <c r="AL96" s="22">
+        <v>129.63293650793699</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12808,15 +13109,18 @@
       </c>
       <c r="AK97" s="20">
         <v>0.74532729816606902</v>
+      </c>
+      <c r="AL97" s="20">
+        <v>0.79648679861029803</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12918,16 +13222,19 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="AK98" s="22">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="AL98" s="22">
         <v>0.70999999999999996</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -13030,15 +13337,18 @@
       </c>
       <c r="AK99" s="20">
         <v>455.09333333333302</v>
+      </c>
+      <c r="AL99" s="20">
+        <v>442.12666666666701</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -13141,15 +13451,18 @@
       </c>
       <c r="AK100" s="22">
         <v>113.786160450412</v>
+      </c>
+      <c r="AL100" s="22">
+        <v>116.326021202926</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -13252,15 +13565,18 @@
       </c>
       <c r="AK101" s="20">
         <v>1.38236575871562</v>
+      </c>
+      <c r="AL101" s="20">
+        <v>1.39741771382737</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13363,15 +13679,18 @@
       </c>
       <c r="AK102" s="22">
         <v>1204.46</v>
+      </c>
+      <c r="AL102" s="22">
+        <v>1259.85666666667</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13474,15 +13793,18 @@
       </c>
       <c r="AK103" s="20">
         <v>0.89101231472579301</v>
+      </c>
+      <c r="AL103" s="20">
+        <v>0.938694723821484</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13585,15 +13907,18 @@
       </c>
       <c r="AK104" s="22">
         <v>0.302931986531987</v>
+      </c>
+      <c r="AL104" s="22">
+        <v>0.30602395361991003</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13696,15 +14021,18 @@
       </c>
       <c r="AK105" s="20">
         <v>89.671519815668205</v>
+      </c>
+      <c r="AL105" s="20">
+        <v>81.682253405017903</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13807,15 +14135,18 @@
       </c>
       <c r="AK106" s="22">
         <v>11278.2545454545</v>
+      </c>
+      <c r="AL106" s="22">
+        <v>13067.401851851901</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13917,16 +14248,19 @@
         <v>1507.5</v>
       </c>
       <c r="AK107" s="20">
+        <v>1507.5</v>
+      </c>
+      <c r="AL107" s="20">
         <v>1507.5</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -14029,15 +14363,18 @@
       </c>
       <c r="AK108" s="22">
         <v>15.227718928333299</v>
+      </c>
+      <c r="AL108" s="22">
+        <v>15.542039578666699</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -14133,22 +14470,25 @@
         <v>171.87432282051299</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AK109" s="20" t="s">
-        <v>325</v>
+        <v>327</v>
+      </c>
+      <c r="AL109" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -14234,32 +14574,35 @@
       <c r="AE110" s="22">
         <v>1.3794435644989</v>
       </c>
-      <c r="AF110" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG110" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="AH110" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI110" s="22" t="s">
+      <c r="AF110" s="22">
+        <v>1.3588339678780199</v>
+      </c>
+      <c r="AG110" s="22">
+        <v>4.47563333333333</v>
+      </c>
+      <c r="AH110" s="22">
+        <v>4.4823666666666702</v>
+      </c>
+      <c r="AI110" s="22">
+        <v>4.5211333333333297</v>
+      </c>
+      <c r="AJ110" s="22">
+        <v>4.5785666666666698</v>
+      </c>
+      <c r="AK110" s="22">
+        <v>4.6118333333333297</v>
+      </c>
+      <c r="AL110" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="AJ110" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="AK110" s="22" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -14277,100 +14620,103 @@
         <v>2.7608333333333301</v>
       </c>
       <c r="I111" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="J111" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K111" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="L111" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="K111" s="20" t="s">
+      <c r="M111" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="L111" s="20" t="s">
+      <c r="N111" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="M111" s="20" t="s">
+      <c r="O111" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="N111" s="20" t="s">
+      <c r="P111" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="O111" s="20" t="s">
+      <c r="Q111" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="P111" s="20" t="s">
+      <c r="R111" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="Q111" s="20" t="s">
+      <c r="S111" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="R111" s="20" t="s">
+      <c r="T111" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="S111" s="20" t="s">
+      <c r="U111" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="T111" s="20" t="s">
+      <c r="V111" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="U111" s="20" t="s">
+      <c r="W111" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="V111" s="20" t="s">
+      <c r="X111" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="W111" s="20" t="s">
+      <c r="Y111" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="X111" s="20" t="s">
+      <c r="Z111" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="Y111" s="20" t="s">
+      <c r="AA111" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="Z111" s="20" t="s">
+      <c r="AB111" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="AA111" s="20" t="s">
+      <c r="AC111" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="AB111" s="20" t="s">
+      <c r="AD111" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="AC111" s="20" t="s">
+      <c r="AE111" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="AD111" s="20" t="s">
+      <c r="AF111" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="AE111" s="20" t="s">
+      <c r="AG111" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="AF111" s="20" t="s">
+      <c r="AH111" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="AG111" s="20" t="s">
+      <c r="AI111" s="20" t="s">
         <v>360</v>
       </c>
-      <c r="AH111" s="20" t="s">
+      <c r="AJ111" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="AI111" s="20" t="s">
+      <c r="AK111" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="AJ111" s="20" t="s">
+      <c r="AL111" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="AK111" s="20" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="17" t="s">
         <v>365</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>366</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14473,15 +14819,18 @@
       </c>
       <c r="AK112" s="22">
         <v>3974.90292857143</v>
+      </c>
+      <c r="AL112" s="22">
+        <v>3995.6767919799499</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C113" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>368</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14580,9 +14929,12 @@
         <v>818.15012014397803</v>
       </c>
       <c r="AJ113" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="AK113" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="AK113" s="20" t="s">
+      <c r="AL113" s="20" t="s">
         <v>370</v>
       </c>
     </row>
@@ -14696,6 +15048,9 @@
       <c r="AK114" s="22">
         <v>4.1923867954911396</v>
       </c>
+      <c r="AL114" s="22">
+        <v>4.3508323280423298</v>
+      </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
@@ -14807,6 +15162,9 @@
       <c r="AK115" s="20">
         <v>15.3813172043011</v>
       </c>
+      <c r="AL115" s="20">
+        <v>15.3873154121864</v>
+      </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
@@ -14918,6 +15276,9 @@
       <c r="AK116" s="22">
         <v>584.46576493058706</v>
       </c>
+      <c r="AL116" s="22">
+        <v>615.74337495376903</v>
+      </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
@@ -15017,26 +15378,29 @@
       <c r="AG117" s="20">
         <v>35.996666666666698</v>
       </c>
-      <c r="AH117" s="20" t="s">
+      <c r="AH117" s="20">
+        <v>35.993333333333297</v>
+      </c>
+      <c r="AI117" s="20">
+        <v>36.116666666666703</v>
+      </c>
+      <c r="AJ117" s="20">
+        <v>36.146666666666697</v>
+      </c>
+      <c r="AK117" s="20">
+        <v>36.246666666666698</v>
+      </c>
+      <c r="AL117" s="20" t="s">
         <v>379</v>
-      </c>
-      <c r="AI117" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ117" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="AK117" s="20" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -15139,15 +15503,18 @@
       </c>
       <c r="AK118" s="22">
         <v>43.833066666666703</v>
+      </c>
+      <c r="AL118" s="22">
+        <v>43.738833333333297</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -15250,15 +15617,18 @@
       </c>
       <c r="AK119" s="20">
         <v>20.520600000000002</v>
+      </c>
+      <c r="AL119" s="20">
+        <v>20.043966666666702</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15360,16 +15730,19 @@
         <v>1</v>
       </c>
       <c r="AK120" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL120" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15472,15 +15845,18 @@
       </c>
       <c r="AK121" s="20">
         <v>18.0900540706605</v>
+      </c>
+      <c r="AL121" s="20">
+        <v>18.825043369175599</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15583,15 +15959,18 @@
       </c>
       <c r="AK122" s="22">
         <v>2869.4516339869301</v>
+      </c>
+      <c r="AL122" s="22">
+        <v>3092.1034184704199</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15694,15 +16073,18 @@
       </c>
       <c r="AK123" s="20">
         <v>0.89101231472579301</v>
+      </c>
+      <c r="AL123" s="20">
+        <v>0.938694723821484</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15804,16 +16186,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK124" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL124" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15916,15 +16301,18 @@
       </c>
       <c r="AK125" s="20">
         <v>9.4709264492753604</v>
+      </c>
+      <c r="AL125" s="20">
+        <v>9.93796060606061</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -16027,15 +16415,18 @@
       </c>
       <c r="AK126" s="22">
         <v>63.829999999999998</v>
+      </c>
+      <c r="AL126" s="22">
+        <v>63.836666666666702</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -16128,25 +16519,28 @@
         <v>1390.43333333333</v>
       </c>
       <c r="AH127" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI127" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="AJ127" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK127" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="AI127" s="20" t="s">
+      <c r="AL127" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="AJ127" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="AK127" s="20" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -16249,15 +16643,18 @@
       </c>
       <c r="AK128" s="22">
         <v>15.227733333333299</v>
+      </c>
+      <c r="AL128" s="22">
+        <v>15.542066666666701</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16360,15 +16757,18 @@
       </c>
       <c r="AK129" s="20">
         <v>1.38236575871562</v>
+      </c>
+      <c r="AL129" s="20">
+        <v>1.39741771382737</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16471,15 +16871,18 @@
       </c>
       <c r="AK130" s="22">
         <v>120.09202681992301</v>
+      </c>
+      <c r="AL130" s="22">
+        <v>122.78412903225799</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16582,15 +16985,18 @@
       </c>
       <c r="AK131" s="20">
         <v>106.326014237164</v>
+      </c>
+      <c r="AL131" s="20">
+        <v>112.01603717464801</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16693,15 +17099,18 @@
       </c>
       <c r="AK132" s="22">
         <v>1.48006666666667</v>
+      </c>
+      <c r="AL132" s="22">
+        <v>1.5367666666666699</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16802,17 +17211,20 @@
       <c r="AJ133" s="20">
         <v>35.433433333333298</v>
       </c>
-      <c r="AK133" s="20" t="s">
-        <v>419</v>
+      <c r="AK133" s="20">
+        <v>35.608766666666703</v>
+      </c>
+      <c r="AL133" s="20">
+        <v>35.793466666666703</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16915,15 +17327,18 @@
       </c>
       <c r="AK134" s="22">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL134" s="22">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -17022,19 +17437,22 @@
         <v>410.69999999999999</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AK135" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
+      </c>
+      <c r="AL135" s="20" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -17137,15 +17555,18 @@
       </c>
       <c r="AK136" s="22">
         <v>54.9643333333333</v>
+      </c>
+      <c r="AL136" s="22">
+        <v>57.789866666666697</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -17248,15 +17669,18 @@
       </c>
       <c r="AK137" s="20">
         <v>8.8499999999999996</v>
+      </c>
+      <c r="AL137" s="20">
+        <v>9.4166666666666696</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -17358,16 +17782,19 @@
         <v>0.38450000000000001</v>
       </c>
       <c r="AK138" s="22">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="AL138" s="22">
         <v>0.38450000000000001</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17470,15 +17897,18 @@
       </c>
       <c r="AK139" s="20">
         <v>177.37214969697001</v>
+      </c>
+      <c r="AL139" s="20">
+        <v>195.24546497584601</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17580,16 +18010,19 @@
         <v>1</v>
       </c>
       <c r="AK140" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL140" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17691,16 +18124,19 @@
         <v>1</v>
       </c>
       <c r="AK141" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL141" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17802,52 +18238,55 @@
         <v>3.5087719298245599</v>
       </c>
       <c r="AK142" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
+      </c>
+      <c r="AL142" s="22" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C143" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
       </c>
       <c r="E143" s="19">
-        <v>4523.8801230158697</v>
+        <v>4523.8833333333296</v>
       </c>
       <c r="F143" s="20">
-        <v>4419.86757727653</v>
+        <v>4419.8666666666704</v>
       </c>
       <c r="G143" s="20">
-        <v>4289.84667598344</v>
+        <v>4289.8500000000004</v>
       </c>
       <c r="H143" s="20">
-        <v>4615.1467768878701</v>
+        <v>4615.1666666666697</v>
       </c>
       <c r="I143" s="20">
-        <v>4759.5262925685402</v>
+        <v>4759.4733333333297</v>
       </c>
       <c r="J143" s="20">
-        <v>5056.1236137566102</v>
+        <v>5056.1166666666704</v>
       </c>
       <c r="K143" s="20">
-        <v>5306.7755844155799</v>
+        <v>5306.7833333333301</v>
       </c>
       <c r="L143" s="20">
-        <v>5697.2577417027396</v>
+        <v>5697.2666666666701</v>
       </c>
       <c r="M143" s="20">
-        <v>5797.9615476190502</v>
+        <v>5797.8833333333296</v>
       </c>
       <c r="N143" s="20">
-        <v>5608.6409704184698</v>
+        <v>5608.6333333333296</v>
       </c>
       <c r="O143" s="20">
-        <v>5545.16263708514</v>
+        <v>5545.1546212121202</v>
       </c>
       <c r="P143" s="20">
         <v>5730.3984368686897</v>
@@ -17914,6 +18353,9 @@
       </c>
       <c r="AK143" s="20">
         <v>6972.0181646144301</v>
+      </c>
+      <c r="AL143" s="20" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
@@ -18026,6 +18468,9 @@
       <c r="AK144" s="22">
         <v>3.80628944099379</v>
       </c>
+      <c r="AL144" s="22">
+        <v>3.74814171793119</v>
+      </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
@@ -18137,6 +18582,9 @@
       <c r="AK145" s="20">
         <v>51.529969634230497</v>
       </c>
+      <c r="AL145" s="20">
+        <v>52.6354318181818</v>
+      </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
@@ -18248,6 +18696,9 @@
       <c r="AK146" s="22">
         <v>4.1200666666666699</v>
       </c>
+      <c r="AL146" s="22">
+        <v>4.3587333333333298</v>
+      </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
@@ -18359,6 +18810,9 @@
       <c r="AK147" s="20">
         <v>3.6400000000000001</v>
       </c>
+      <c r="AL147" s="20">
+        <v>3.6400000000000001</v>
+      </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
@@ -18470,6 +18924,9 @@
       <c r="AK148" s="22">
         <v>4.4066666666666698</v>
       </c>
+      <c r="AL148" s="22">
+        <v>4.6390000000000002</v>
+      </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
@@ -18581,6 +19038,9 @@
       <c r="AK149" s="20">
         <v>85.630066666666707</v>
       </c>
+      <c r="AL149" s="20">
+        <v>66.541533333333305</v>
+      </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
@@ -18692,6 +19152,9 @@
       <c r="AK150" s="22">
         <v>1014.648099</v>
       </c>
+      <c r="AL150" s="22">
+        <v>1021.25729833333</v>
+      </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
@@ -18803,6 +19266,9 @@
       <c r="AK151" s="20">
         <v>2.6120313675308799</v>
       </c>
+      <c r="AL151" s="20">
+        <v>2.6518860460600702</v>
+      </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
@@ -18914,6 +19380,9 @@
       <c r="AK152" s="22">
         <v>0.89101231472579301</v>
       </c>
+      <c r="AL152" s="22">
+        <v>0.938694723821484</v>
+      </c>
     </row>
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
@@ -19025,14 +19494,17 @@
       <c r="AK153" s="20" t="s">
         <v>467</v>
       </c>
+      <c r="AL153" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -19134,16 +19606,19 @@
         <v>3.75</v>
       </c>
       <c r="AK154" s="22">
+        <v>3.75</v>
+      </c>
+      <c r="AL154" s="22">
         <v>3.75</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -19246,15 +19721,18 @@
       </c>
       <c r="AK155" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL155" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -19357,15 +19835,18 @@
       </c>
       <c r="AK156" s="22">
         <v>104.78463333333301</v>
+      </c>
+      <c r="AL156" s="22">
+        <v>110.305133333333</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19468,15 +19949,18 @@
       </c>
       <c r="AK157" s="20">
         <v>14.4253151315841</v>
+      </c>
+      <c r="AL157" s="20">
+        <v>14.1889870547241</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19566,28 +20050,31 @@
         <v>10026.3712265512</v>
       </c>
       <c r="AG158" s="22">
-        <v>10202.091874800601</v>
+        <v>10202.0911929825</v>
       </c>
       <c r="AH158" s="22">
-        <v>10238.1054385965</v>
+        <v>10238.106228070201</v>
       </c>
       <c r="AI158" s="22">
-        <v>10349.437485570001</v>
+        <v>10349.437334054801</v>
       </c>
       <c r="AJ158" s="22">
         <v>10968.0665227273</v>
       </c>
       <c r="AK158" s="22">
         <v>11545.737618421101</v>
+      </c>
+      <c r="AL158" s="22">
+        <v>12733.942619047601</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19690,15 +20177,18 @@
       </c>
       <c r="AK159" s="20">
         <v>1.3522000000000001</v>
+      </c>
+      <c r="AL159" s="20">
+        <v>1.3769</v>
       </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19800,16 +20290,19 @@
         <v>1.79</v>
       </c>
       <c r="AK160" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="AL160" s="22">
         <v>1.79</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19912,15 +20405,18 @@
       </c>
       <c r="AK161" s="20">
         <v>8.0777538043065995</v>
+      </c>
+      <c r="AL161" s="20" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19980,58 +20476,61 @@
         <v>23522.3428300095</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AK162" s="22" t="s">
-        <v>500</v>
+        <v>502</v>
+      </c>
+      <c r="AL162" s="22" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -20134,15 +20633,18 @@
       </c>
       <c r="AK163" s="20">
         <v>15.227718928333299</v>
+      </c>
+      <c r="AL163" s="20">
+        <v>15.542039578666699</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -20243,17 +20745,20 @@
       <c r="AJ164" s="22">
         <v>412.16729370967698</v>
       </c>
-      <c r="AK164" s="22" t="s">
-        <v>505</v>
+      <c r="AK164" s="22">
+        <v>432.55703333333298</v>
+      </c>
+      <c r="AL164" s="22">
+        <v>453.03486666666703</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -20343,28 +20848,31 @@
         <v>185.46943825396801</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AK165" s="20" t="s">
-        <v>512</v>
+        <v>514</v>
+      </c>
+      <c r="AL165" s="20" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20466,16 +20974,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK166" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL166" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20577,16 +21088,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK167" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL167" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20688,16 +21202,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK168" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL168" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20790,25 +21307,28 @@
         <v>195.01333333333301</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AK169" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
+      </c>
+      <c r="AL169" s="20" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20910,16 +21430,19 @@
         <v>21.531659333333302</v>
       </c>
       <c r="AK170" s="22">
-        <v>21.478028500000001</v>
+        <v>21.478027000000001</v>
+      </c>
+      <c r="AL170" s="22">
+        <v>21.980261500000001</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -21022,15 +21545,18 @@
       </c>
       <c r="AK171" s="20">
         <v>9.3385809903381602</v>
+      </c>
+      <c r="AL171" s="20">
+        <v>9.8366267486899197</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -21133,15 +21659,18 @@
       </c>
       <c r="AK172" s="22">
         <v>0.92366999999999999</v>
+      </c>
+      <c r="AL172" s="22">
+        <v>0.96458999999999995</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -21204,55 +21733,58 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AK173" s="20" t="s">
-        <v>546</v>
+        <v>550</v>
+      </c>
+      <c r="AL173" s="20" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -21355,15 +21887,18 @@
       </c>
       <c r="AK174" s="22">
         <v>28</v>
+      </c>
+      <c r="AL174" s="22">
+        <v>29.459</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -21466,15 +22001,18 @@
       </c>
       <c r="AK175" s="20">
         <v>11.7142</v>
+      </c>
+      <c r="AL175" s="20">
+        <v>11.895200000000001</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21577,15 +22115,18 @@
       </c>
       <c r="AK176" s="22">
         <v>2298.1761933921698</v>
+      </c>
+      <c r="AL176" s="22">
+        <v>2300.32009113411</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21688,15 +22229,18 @@
       </c>
       <c r="AK177" s="20">
         <v>33.052896250953502</v>
+      </c>
+      <c r="AL177" s="20">
+        <v>34.397010835913299</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21798,16 +22342,19 @@
         <v>1</v>
       </c>
       <c r="AK178" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL178" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21910,15 +22457,18 @@
       </c>
       <c r="AK179" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL179" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -22021,15 +22571,18 @@
       </c>
       <c r="AK180" s="22">
         <v>2.2790872157287301</v>
+      </c>
+      <c r="AL180" s="22" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -22132,15 +22685,18 @@
       </c>
       <c r="AK181" s="20">
         <v>6.7590321212121198</v>
+      </c>
+      <c r="AL181" s="20">
+        <v>6.7535874727668803</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -22243,15 +22799,18 @@
       </c>
       <c r="AK182" s="22">
         <v>2.9135</v>
+      </c>
+      <c r="AL182" s="22">
+        <v>3.0773333333333301</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -22354,15 +22913,18 @@
       </c>
       <c r="AK183" s="20">
         <v>13.9274970814132</v>
+      </c>
+      <c r="AL183" s="20">
+        <v>15.748632508960601</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -22465,15 +23027,18 @@
       </c>
       <c r="AK184" s="22">
         <v>3544.3942049441798</v>
+      </c>
+      <c r="AL184" s="22">
+        <v>3640.6349854497398</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22576,15 +23141,18 @@
       </c>
       <c r="AK185" s="20">
         <v>28.549945099999999</v>
+      </c>
+      <c r="AL185" s="20">
+        <v>29.254899999999999</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22686,16 +23254,19 @@
         <v>3.6724999999999999</v>
       </c>
       <c r="AK186" s="22">
+        <v>3.6724999999999999</v>
+      </c>
+      <c r="AL186" s="22">
         <v>3.6724999999999999</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22798,15 +23369,18 @@
       </c>
       <c r="AK187" s="20">
         <v>0.74532729816606902</v>
+      </c>
+      <c r="AL187" s="20">
+        <v>0.79648679861029803</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22908,16 +23482,19 @@
         <v>1</v>
       </c>
       <c r="AK188" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL188" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -23020,15 +23597,18 @@
       </c>
       <c r="AK189" s="20">
         <v>43.312333333333299</v>
+      </c>
+      <c r="AL189" s="20">
+        <v>40.560666666666698</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -23131,15 +23711,18 @@
       </c>
       <c r="AK190" s="22">
         <v>10961.939965437799</v>
+      </c>
+      <c r="AL190" s="22">
+        <v>11127.1449928315</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -23242,15 +23825,18 @@
       </c>
       <c r="AK191" s="20">
         <v>112.54900000000001</v>
+      </c>
+      <c r="AL191" s="20" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -23310,58 +23896,61 @@
         <v>71359.309366666697</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="AK192" s="22" t="s">
-        <v>599</v>
+        <v>606</v>
+      </c>
+      <c r="AL192" s="22" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -23464,15 +24053,18 @@
       </c>
       <c r="AK193" s="20">
         <v>23123.310000000001</v>
+      </c>
+      <c r="AL193" s="20">
+        <v>23108.196666666699</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -23575,15 +24167,18 @@
       </c>
       <c r="AK194" s="22">
         <v>1147.42530721966</v>
+      </c>
+      <c r="AL194" s="22">
+        <v>1017.08387096774</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23686,81 +24281,84 @@
       </c>
       <c r="AK195" s="20">
         <v>17.791292660121499</v>
+      </c>
+      <c r="AL195" s="20">
+        <v>17.165772641343999</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="Y196" s="22" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="Z196" s="22">
         <v>4.4076787878787904</v>
@@ -23797,15 +24395,18 @@
       </c>
       <c r="AK196" s="22">
         <v>121.08271567687299</v>
+      </c>
+      <c r="AL196" s="22">
+        <v>234.437180773525</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23908,15 +24509,18 @@
       </c>
       <c r="AK197" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL197" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -24018,16 +24622,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AK198" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AL198" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
@@ -24130,6 +24737,9 @@
       </c>
       <c r="AK199" s="20">
         <v>584.46576493058706</v>
+      </c>
+      <c r="AL199" s="20">
+        <v>615.74337495376903</v>
       </c>
     </row>
   </sheetData>
